--- a/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>RAD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,213 +665,226 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43617</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43526</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43435</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43344</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43253</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43162</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43071</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42980</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42889</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42798</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42700</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5727200</v>
+      </c>
+      <c r="E8" s="3">
         <v>5462300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5366300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5372600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5379600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5450100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5421400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5388500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5394300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5353200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5345000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5436500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5903400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5669100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11355000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4460600</v>
+      </c>
+      <c r="E9" s="3">
         <v>4273300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4221800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4245900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4215300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4268000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4260200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4219700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4124500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4166400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4183300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4274600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4554300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4424300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8884200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1266600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1189000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1144500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1126700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1164300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1182100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1161200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1168800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1269800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1186800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1161700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1161900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1349100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1244800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2470800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +902,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +950,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -983,55 +1000,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-30300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>26600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>43800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>55900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>414800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>309400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-639700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>25600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1077,8 +1100,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1093,102 +1119,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5655600</v>
+      </c>
+      <c r="E17" s="3">
         <v>5352700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5358800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5409000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5414400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5413200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5829000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5382800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5615900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5336900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5003300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5439600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5833000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5600100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11252500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E18" s="3">
         <v>109600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-36400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-34800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>36900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-407600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-221600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>341700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>70400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>69000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1206,243 +1239,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>26900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E21" s="3">
         <v>193000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>92100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>50200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>79000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>124000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-312900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>106100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-122700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>111800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>452300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>103900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>340400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>92900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>383600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E22" s="3">
         <v>57900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>60100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>58300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>52700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>56000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>56200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>62800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>51000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>53400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>50300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E23" s="3">
         <v>53200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-51100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-92000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-60600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-458900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-51200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-267000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-34200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>305800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-48200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>18900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>351700</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>27600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>195000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-106600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-9500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-108000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-16100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>117500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-12100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>48300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1488,102 +1537,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-343500</v>
+      </c>
+      <c r="E26" s="3">
         <v>52300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-78700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-99300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-255600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-352300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-41700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-158900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>188400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-36000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-25100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>23600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-343500</v>
+      </c>
+      <c r="E27" s="3">
         <v>52300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-78700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-99300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-255600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-352300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-41700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-158900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>188400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-36000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-25100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1629,55 +1687,61 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E29" s="3">
         <v>-800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-600</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-17400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>12700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-6800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>256100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>926000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>99200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-17600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-39300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>3900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1723,8 +1787,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1770,102 +1837,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-26900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-324700</v>
+      </c>
+      <c r="E33" s="3">
         <v>51500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-79300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-99700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-273000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-359100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>214400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>767100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>81000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>170700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-75300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-21100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1911,107 +1987,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-324700</v>
+      </c>
+      <c r="E35" s="3">
         <v>51500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-79300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-99700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-273000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-359100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>214400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>767100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>81000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>170700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-75300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-21100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43617</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43526</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43435</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43344</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43253</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43162</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43071</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42980</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42889</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42798</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42700</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2029,8 +2114,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2048,55 +2134,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>218200</v>
+      </c>
+      <c r="E41" s="3">
         <v>289500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>142200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>190500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>144400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>410000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>132500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>147100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>447300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>169800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>239000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>214400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>245400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>220000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2142,196 +2232,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1286800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1689800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1945600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1803800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1788700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1717800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2039600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1909000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1869100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1796900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1843300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1781200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1771100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1707600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1828600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1921600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1957000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1968900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1875900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1871900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1894300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1848300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1809600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1799500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1853900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2877400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2789200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1789500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2947400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2827000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>274100</v>
+      </c>
+      <c r="E45" s="3">
         <v>279900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>328600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>258600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>296700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>308300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>351300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>330500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>619300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2108800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>221600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>192800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1259200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>142100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3700600</v>
+      </c>
+      <c r="E46" s="3">
         <v>4216300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4385400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4128700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4101700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4330500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4371700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4196100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4735300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5929400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5181400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4977600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5065300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5017200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4938500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2377,102 +2482,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4119100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4189300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4215100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4269900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1308500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1335700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1350700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1401900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1431200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1479200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2188200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2218300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1526500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2291500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2281400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1467600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1482800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1489500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1508200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1556800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1570500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1588700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1990000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2011600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2301100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2462800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2503400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2398300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2600700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2636800</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2518,8 +2632,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2565,55 +2682,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E52" s="3">
         <v>540400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>583200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>622800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>624300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>846200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>854600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>741300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>811200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1630800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1666000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1760800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3486000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1749600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1754200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2659,55 +2782,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9452400</v>
+      </c>
+      <c r="E54" s="3">
         <v>10428800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10673200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10529700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7591400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8083000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8165700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8329500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8989300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11340600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11498300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11460100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11593800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11658900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11611000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2725,8 +2854,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2744,290 +2874,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1484100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1534300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1570200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1556400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1618600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1707200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1734000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1767800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1651400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1789500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1687900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1646500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1613900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1792600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1695800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E58" s="3">
         <v>9500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>16100</v>
       </c>
       <c r="H58" s="3">
         <v>16100</v>
       </c>
       <c r="I58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="J58" s="3">
         <v>18700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>22500</v>
       </c>
       <c r="N58" s="3">
         <v>22500</v>
       </c>
       <c r="O58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="P58" s="3">
         <v>17700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>22700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1273500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1342900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1278900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1277000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>808400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>997000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>938900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1030300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1791900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5096100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1270800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1339800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1373600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1256300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1331700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2766500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2886600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2859700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2845100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2443100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2720300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2691600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2817100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3464100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6905900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2981200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3008700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3005200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3071500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3051900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3096600</v>
+      </c>
+      <c r="E61" s="3">
         <v>3586900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3857100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3604700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3478600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3420700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3508300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3163600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3370900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3017400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7120400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7217800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3273100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7252200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7220300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2914800</v>
+      </c>
+      <c r="E62" s="3">
         <v>2939400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2995700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3044600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>482900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>488600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>509800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>536500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>553400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>592200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>663000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>673000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8758700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>689000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>722100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3073,8 +3222,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3120,8 +3272,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3167,55 +3322,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8777800</v>
+      </c>
+      <c r="E66" s="3">
         <v>9412900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9712600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9494500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6404700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6629500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6709700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6517100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7388300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10515500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10764700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10899500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10979700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11012800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10994300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3233,8 +3394,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3280,8 +3442,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3327,8 +3492,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3374,8 +3542,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3421,55 +3592,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5222200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4897500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4949000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4869700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4713200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4440300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4435700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4076600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4282500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5048200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5129200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5299900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5237200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5216000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5231000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3515,8 +3692,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3562,8 +3742,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3609,55 +3792,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>674500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1015900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>960600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1035200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1186700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1453400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1456000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1812300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1601000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>825100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>733600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>560600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>614100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>646100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>616700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3703,107 +3892,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43617</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43526</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43435</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43344</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43253</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43162</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43071</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42980</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42889</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42798</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42700</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-324700</v>
+      </c>
+      <c r="E81" s="3">
         <v>51500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-79300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-99700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-273000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-359100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>214400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>767100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>81000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>170700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-75300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-21100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3821,55 +4019,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E83" s="3">
         <v>82000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>83000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>83900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>86900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>86700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>89700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>94500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>93600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>18300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>132000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>142100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>144100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>143200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>280800</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3915,8 +4117,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3962,8 +4167,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4009,8 +4217,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4056,8 +4267,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4103,55 +4317,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400500</v>
+      </c>
+      <c r="E89" s="3">
         <v>418800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-267200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-65100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-231600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>365900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-272500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-90400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-95800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>64300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>205100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>92700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>54200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>152700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4169,55 +4389,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-45100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-43100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-41000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-57600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-46700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-44600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-48000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-45100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-61700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-40800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>135200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-107100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-509200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4263,8 +4487,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4310,55 +4537,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E94" s="3">
         <v>12300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-46800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-48000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-46100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-45600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>554300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3262200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>163500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-58200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-91900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-124600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-247800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4376,8 +4609,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4423,8 +4657,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4470,8 +4707,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4517,8 +4757,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4564,55 +4807,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-467800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-283800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>265700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>159200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>12000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-91900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>303600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-764200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2888900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-297000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-126300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-65500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>56900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>56000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4658,51 +4907,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-71300</v>
+      </c>
+      <c r="E102" s="3">
         <v>147300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-48300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>46100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-265700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>277600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>277500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-69200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>24500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-31000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>25400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>83900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>RAD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,226 +665,239 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43981</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43617</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43526</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43435</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43344</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43253</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43162</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43071</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42980</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42889</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42798</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42700</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6027400</v>
+      </c>
+      <c r="E8" s="3">
         <v>5727200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5462300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5366300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5372600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5379600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5450100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5421400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5388500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5394300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5353200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5345000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5436500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5903400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5669100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11355000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4829100</v>
+      </c>
+      <c r="E9" s="3">
         <v>4460600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4273300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4221800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4245900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4215300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4268000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4260200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4219700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4124500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4166400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4183300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4274600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4554300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4424300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8884200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1198300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1266600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1189000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1144500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1126700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1164300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1182100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1161200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1168800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1269800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1186800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1161700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1161900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1349100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1244800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2470800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -903,8 +916,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -953,8 +967,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1003,58 +1020,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E14" s="3">
         <v>52600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-30300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>26600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>43800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>55900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>414800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>309400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-639700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>25600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1103,8 +1126,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1120,108 +1146,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6059800</v>
+      </c>
+      <c r="E17" s="3">
         <v>5655600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5352700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5358800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5409000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5414400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5413200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5829000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5382800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5615900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5336900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5003300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5439600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5833000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5600100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11252500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E18" s="3">
         <v>71600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>109600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-36400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-34800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>36900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-407600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-221600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>341700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>70400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>69000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1240,258 +1273,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>26900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>15000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E21" s="3">
         <v>141000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>193000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>92100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>50200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>79000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>124000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-312900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>106100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-122700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>111800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>452300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>103900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>340400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>92900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>383600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E22" s="3">
         <v>53400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>57900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>60100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>58300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>52700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>56000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>56200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>62800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>50900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>51000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>53400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>50300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-80700</v>
+      </c>
+      <c r="E23" s="3">
         <v>8300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>53200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-51100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-92000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-60600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-458900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-51200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-267000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-34200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>305800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-48200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>18900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E24" s="3">
         <v>351700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>195000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-106600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-9500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-108000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-16100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>117500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-12100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>48300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1540,108 +1589,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-343500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>52300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-78700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-99300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-255600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-352300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-41700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-158900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>188400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-36000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-25100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>23600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-343500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>52300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-78700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-99300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-255600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-352300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-41700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-158900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>188400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-36000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-25100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>23600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1690,58 +1748,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E29" s="3">
         <v>18700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-17400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>12700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-6800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>256100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>926000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>99200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-17600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-39300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>3900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-8600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1790,8 +1854,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1840,108 +1907,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>9900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-26900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-15000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-324700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>51500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-79300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-99700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-273000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-359100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>214400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>767100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>81000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>170700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-75300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1990,113 +2066,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-324700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>51500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-79300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-99700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-273000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-359100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>214400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>767100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>81000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>170700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-75300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43981</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43617</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43526</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43435</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43344</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43253</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43162</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43071</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42980</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42889</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42798</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42700</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2115,8 +2200,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2135,58 +2221,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>288300</v>
+      </c>
+      <c r="E41" s="3">
         <v>218200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>289500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>142200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>190500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>144400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>410000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>132500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>147100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>447300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>169800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>239000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>214400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>245400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>220000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2235,208 +2325,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1592800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1286800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1689800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1945600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1803800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1788700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1717800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2039600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1909000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1869100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1796900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1843300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1781200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1771100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1707600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1828600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1890000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1921600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1957000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1968900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1875900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1871900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1894300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1848300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1809600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1799500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1853900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2877400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2789200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1789500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2947400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2827000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>107700</v>
+      </c>
+      <c r="E45" s="3">
         <v>274100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>279900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>328600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>258600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>296700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>308300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>351300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>330500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>619300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2108800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>221600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>192800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1259200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>142100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3878800</v>
+      </c>
+      <c r="E46" s="3">
         <v>3700600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4216300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4385400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4128700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4101700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4330500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4371700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4196100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4735300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5929400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5181400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4977600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5065300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5017200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4938500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2485,108 +2590,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4074700</v>
+      </c>
+      <c r="E48" s="3">
         <v>4119100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4189300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4215100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4269900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1308500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1335700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1350700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1401900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1431200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1479200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2188200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2218300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1526500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2291500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2281400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1424300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1467600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1482800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1489500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1508200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1556800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1570500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1588700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1990000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2011600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2301100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2462800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2503400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2398300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2600700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2636800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2635,8 +2749,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2685,58 +2802,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E52" s="3">
         <v>165000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>540400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>583200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>622800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>624300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>846200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>854600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>741300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>811200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1630800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1666000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1760800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3486000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1749600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1754200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2785,58 +2908,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9520900</v>
+      </c>
+      <c r="E54" s="3">
         <v>9452400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10428800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10673200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10529700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7591400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8083000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8165700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8329500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8989300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11340600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11498300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11460100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11593800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11658900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11611000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2855,8 +2984,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2875,308 +3005,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1460300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1484100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1534300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1570200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1556400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1618600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1707200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1734000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1767800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1651400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1789500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1687900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1646500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1613900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1792600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1695800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E58" s="3">
         <v>8800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>16100</v>
       </c>
       <c r="I58" s="3">
         <v>16100</v>
       </c>
       <c r="J58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K58" s="3">
         <v>18700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>22500</v>
       </c>
       <c r="O58" s="3">
         <v>22500</v>
       </c>
       <c r="P58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>17700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>22700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1169500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1273500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1342900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1278900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1277000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>808400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>997000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>938900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1030300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1791900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5096100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1270800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1339800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1373600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1256300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1331700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2637900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2766500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2886600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2859700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2845100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2443100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2720300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2691600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2817100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3464100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6905900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2981200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3008700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3005200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3071500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3051900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3340600</v>
+      </c>
+      <c r="E61" s="3">
         <v>3096600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3586900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3857100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3604700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3478600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3420700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3508300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3163600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3370900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3017400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7120400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7217800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3273100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7252200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7220300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2928600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2914800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2939400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2995700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3044600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>482900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>488600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>509800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>536500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>553400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>592200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>663000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>673000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8758700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>689000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>722100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3225,8 +3374,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3275,8 +3427,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3325,58 +3480,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8907100</v>
+      </c>
+      <c r="E66" s="3">
         <v>8777800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9412900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9712600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9494500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6404700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6629500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6709700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6517100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7388300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10515500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10764700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10899500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10979700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11012800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10994300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3395,8 +3556,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3445,8 +3607,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3495,8 +3660,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3545,8 +3713,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3595,58 +3766,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5285700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5222200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4897500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4949000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4869700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4713200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4440300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4435700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4076600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4282500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5048200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5129200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5299900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5237200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5216000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5231000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3695,8 +3872,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3745,8 +3925,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3795,58 +3978,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>613800</v>
+      </c>
+      <c r="E76" s="3">
         <v>674500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1015900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>960600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1035200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1186700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1453400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1456000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1812300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1601000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>825100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>733600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>560600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>614100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>646100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>616700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3895,113 +4084,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43981</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43617</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43526</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43435</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43344</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43253</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43162</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43071</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42980</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42889</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42798</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42700</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-324700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>51500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-79300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-99700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-273000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-359100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>214400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>767100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>81000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>170700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-75300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4020,58 +4218,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E83" s="3">
         <v>79300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>82000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>83000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>83900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>86900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>86700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>89700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>94500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>93600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>18300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>132000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>142100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>144100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>143200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>280800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4120,8 +4322,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4170,8 +4375,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4220,8 +4428,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4270,8 +4481,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4320,58 +4534,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200500</v>
+      </c>
+      <c r="E89" s="3">
         <v>400500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>418800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-267200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-65100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-231600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>365900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-272500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-90400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-95800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>64300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>205100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>92700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>54200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>152700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4390,58 +4610,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-42600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-45100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-43100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-41000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-57600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-46700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-44600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-48000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-45100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-61700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-40800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>135200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-107100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-509200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4490,8 +4714,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4540,58 +4767,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>12300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-46800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-48000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-46100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-45600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>554300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3262200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>163500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-54300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-58200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-91900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-124600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-247800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4610,8 +4843,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4660,8 +4894,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4710,8 +4947,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4760,8 +5000,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4810,58 +5053,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>212700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-467800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-283800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>265700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>159200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>12000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-91900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>303600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-764200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2888900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-297000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-126300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-65500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>56900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>56000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4910,54 +5159,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-71300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>147300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-48300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>46100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-265700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>277600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>277500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-69200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>24500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-31000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>25400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>83900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>RAD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,239 +665,252 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44072</v>
+      </c>
+      <c r="E7" s="2">
         <v>43981</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43617</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43526</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43435</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43344</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43253</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43162</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43071</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42980</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42889</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42798</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42700</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5982000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6027400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5727200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5462300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5366300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5372600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5379600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5450100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5421400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5388500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5394300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5353200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5345000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5436500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5903400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5669100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11355000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4821600</v>
+      </c>
+      <c r="E9" s="3">
         <v>4829100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4460600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4273300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4221800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4245900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4215300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4268000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4260200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4219700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4124500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4166400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4183300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4274600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4554300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4424300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8884200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1160400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1198300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1266600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1189000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1144500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1126700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1164300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1182100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1161200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1168800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1269800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1186800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1161700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1161900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1349100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1244800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2470800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -917,8 +930,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -970,8 +984,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1023,61 +1040,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E14" s="3">
         <v>69300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>52600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-30300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>26600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>43800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>55900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>414800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>309400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-639700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>25600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1129,8 +1152,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1147,114 +1173,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5944000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6059800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5655600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5352700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5358800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5409000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5414400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5413200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5829000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5382800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5615900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5336900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5003300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5439600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5833000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5600100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11252500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-32400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>71600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>109600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-36400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-34800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>36900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-407600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-221600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>341700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>70400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>69000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1274,273 +1307,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-9900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>26900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>15000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>200</v>
       </c>
       <c r="S20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E21" s="3">
         <v>48900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>141000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>193000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>92100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>50200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>79000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>124000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-312900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>106100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-122700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>111800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>452300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>103900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>340400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>92900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>383600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E22" s="3">
         <v>50500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>53400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>57900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>60100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>58300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>52700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>56000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>56200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>62800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>50300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>50900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>51000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>53400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>50300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-80700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>53200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-51100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-92000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-60600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-458900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-51200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-267000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-34200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>305800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-48200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>23200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>18900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-8000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>351700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>195000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-106600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-9500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-108000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-16100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>117500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>48300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1592,114 +1641,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-72700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-343500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>52300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-78700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-99300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-255600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-17300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-352300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-41700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-158900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>188400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-25100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>23600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-72700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-343500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>52300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-78700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-99300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-255600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-17300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-352300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-41700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-158900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>188400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-25100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>23600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1751,61 +1809,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>9200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>18700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-17400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>12700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-6800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>256100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>926000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>99200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-17600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-39300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>3900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-8600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1857,8 +1921,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1910,114 +1977,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>9900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-26900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-15000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-200</v>
       </c>
       <c r="S32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-63500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-324700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>51500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-79300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-99700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-273000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-359100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>214400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>767100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>81000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>170700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-75300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-21100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2069,119 +2145,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-63500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-324700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>51500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-79300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-99700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-273000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-359100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>214400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>767100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>81000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>170700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-75300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-21100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44072</v>
+      </c>
+      <c r="E38" s="2">
         <v>43981</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43617</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43526</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43435</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43344</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43253</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43162</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43071</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42980</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42889</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42798</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42700</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2201,8 +2286,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2222,61 +2308,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E41" s="3">
         <v>288300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>218200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>289500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>142200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>190500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>144400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>410000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>132500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>147100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>447300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>169800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>239000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>214400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>245400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>220000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2328,220 +2418,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1920900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1592800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1286800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1689800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1945600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1803800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1788700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1717800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2039600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1909000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1869100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1796900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1843300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1781200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1771100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1707600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1828600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1938000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1890000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1921600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1957000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1968900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1875900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1871900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1894300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1848300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1809600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1799500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1853900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2877400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2789200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1789500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2947400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2827000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>114100</v>
+      </c>
+      <c r="E45" s="3">
         <v>107700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>274100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>279900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>328600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>258600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>296700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>308300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>351300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>330500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>619300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2108800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>221600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>192800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1259200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>142100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4065700</v>
+      </c>
+      <c r="E46" s="3">
         <v>3878800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3700600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4216300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4385400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4128700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4101700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4330500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4371700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4196100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4735300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5929400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5181400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4977600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5065300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5017200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4938500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2593,114 +2698,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4001400</v>
+      </c>
+      <c r="E48" s="3">
         <v>4074700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4119100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4189300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4215100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4269900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1308500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1335700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1350700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1401900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1431200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1479200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2188200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2218300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1526500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2291500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2281400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1413900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1424300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1467600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1482800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1489500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1508200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1556800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1570500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1588700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1990000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2011600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2301100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2462800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2503400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2398300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2600700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2636800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2752,8 +2866,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2805,61 +2922,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>139300</v>
+      </c>
+      <c r="E52" s="3">
         <v>143000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>165000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>540400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>583200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>622800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>624300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>846200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>854600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>741300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>811200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1630800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1666000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1760800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3486000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1749600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1754200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2911,61 +3034,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9620200</v>
+      </c>
+      <c r="E54" s="3">
         <v>9520900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9452400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10428800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10673200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10529700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7591400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8083000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8165700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8329500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8989300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11340600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11498300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11460100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11593800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11658900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11611000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2985,8 +3114,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3006,326 +3136,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1448700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1460300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1484100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1534300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1570200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1556400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1618600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1707200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1734000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1767800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1651400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1789500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1687900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1646500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1613900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1792600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1695800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E58" s="3">
         <v>8100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>16100</v>
       </c>
       <c r="J58" s="3">
         <v>16100</v>
       </c>
       <c r="K58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="L58" s="3">
         <v>18700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>20400</v>
-      </c>
-      <c r="O58" s="3">
-        <v>22500</v>
       </c>
       <c r="P58" s="3">
         <v>22500</v>
       </c>
       <c r="Q58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="R58" s="3">
         <v>17700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>22700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1125500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1169500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1273500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1342900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1278900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1277000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>808400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>997000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>938900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1030300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1791900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5096100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1270800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1339800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1373600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1256300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1331700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2581000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2637900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2766500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2886600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2859700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2845100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2443100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2720300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2691600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2817100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3464100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6905900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2981200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3008700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3005200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3071500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3051900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3524600</v>
+      </c>
+      <c r="E61" s="3">
         <v>3340600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3096600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3586900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3857100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3604700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3478600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3420700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3508300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3163600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3370900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3017400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7120400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7217800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3273100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7252200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7220300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2911500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2928600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2914800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2939400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2995700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3044600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>482900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>488600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>509800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>536500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>553400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>592200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>663000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>673000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8758700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>689000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>722100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3377,8 +3526,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3430,8 +3582,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3483,61 +3638,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9017200</v>
+      </c>
+      <c r="E66" s="3">
         <v>8907100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8777800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9412900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9712600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9494500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6404700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6629500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6709700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6517100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7388300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10515500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10764700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10899500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10979700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11012800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10994300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3557,8 +3718,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3610,8 +3772,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3663,8 +3828,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3716,8 +3884,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3769,61 +3940,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5298900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5285700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5222200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4897500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4949000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4869700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4713200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4440300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4435700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4076600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4282500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5048200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5129200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5299900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5237200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5216000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5231000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3875,8 +4052,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3928,8 +4108,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3981,61 +4164,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>603000</v>
+      </c>
+      <c r="E76" s="3">
         <v>613800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>674500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1015900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>960600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1035200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1186700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1453400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1456000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1812300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1601000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>825100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>733600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>560600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>614100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>646100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>616700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4087,119 +4276,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44072</v>
+      </c>
+      <c r="E80" s="2">
         <v>43981</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43617</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43526</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43435</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43344</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43253</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43162</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43071</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42980</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42889</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42798</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42700</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-63500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-324700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>51500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-79300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-99700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-273000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-359100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>214400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>767100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>81000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>170700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-75300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-21100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4219,61 +4417,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E83" s="3">
         <v>79100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>79300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>82000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>83000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>83900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>86900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>86700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>89700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>94500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>93600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>18300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>132000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>142100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>144100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>143200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>280800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4325,8 +4527,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4378,8 +4583,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4431,8 +4639,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4484,8 +4695,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4537,61 +4751,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-358300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>418800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-267200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-65100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-231600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>365900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-272500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-90400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-95800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>64300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>205100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>92700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>54200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>152700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4611,61 +4831,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-28500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-42600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-45100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-43100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-41000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-57600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-46700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-44600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-45100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-61700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-40800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>135200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-107100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-509200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4717,8 +4941,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4770,61 +4997,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E94" s="3">
         <v>57900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>12300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-46800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-48000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-46100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-45600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>554300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3262200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>163500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-54300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-58200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-91900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-124600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-247800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4844,8 +5077,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4897,8 +5131,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4950,8 +5187,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5003,8 +5243,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5056,61 +5299,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>185100</v>
+      </c>
+      <c r="E100" s="3">
         <v>212700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-467800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-283800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>265700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>159200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>12000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-91900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>303600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-764200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2888900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-297000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-126300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-65500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>56900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>56000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5162,57 +5411,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-195600</v>
+      </c>
+      <c r="E102" s="3">
         <v>70100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-71300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>147300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-48300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>46100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-265700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>277600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>277500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-69200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>24500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>25400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>83900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>RAD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,252 +665,264 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44163</v>
+      </c>
+      <c r="E7" s="2">
         <v>44072</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43981</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43617</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43526</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43435</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43344</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43253</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43162</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43071</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42980</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42889</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42798</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42700</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6117000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5982000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6027400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5727200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5462300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5366300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5372600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5379600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5450100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5421400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5388500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5394300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5353200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5345000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5436500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5903400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5669100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11355000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4913900</v>
+      </c>
+      <c r="E9" s="3">
         <v>4821600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4829100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4460600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4273300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4221800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4245900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4215300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4268000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4260200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4219700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4124500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4166400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4183300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4274600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4554300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4424300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8884200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1203100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1160400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1198300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1266600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1189000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1144500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1126700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1164300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1182100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1161200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1168800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1269800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1186800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1161700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1161900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1349100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1244800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2470800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -931,8 +943,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -987,8 +1000,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1043,64 +1059,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E14" s="3">
         <v>29400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>69300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>52600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-30300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>26600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>43800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>55900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>414800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>309400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-639700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>25600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>7200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1155,8 +1177,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1174,120 +1199,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6077700</v>
+      </c>
+      <c r="E17" s="3">
         <v>5944000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6059800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5655600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5352700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5358800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5409000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5414400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5413200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5829000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5382800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5615900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5336900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5003300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5439600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5833000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5600100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11252500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E18" s="3">
         <v>38000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-32400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>71600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>109600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-36400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-34800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>36900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-407600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-221600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>341700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>70400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>69000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1308,288 +1340,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>26900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>15000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>200</v>
       </c>
       <c r="T20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>138900</v>
+      </c>
+      <c r="E21" s="3">
         <v>124000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>48900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>141000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>193000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>92100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>50200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>79000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>124000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-312900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>106100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-122700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>111800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>452300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>103900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>340400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>92900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>383600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E22" s="3">
         <v>50000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>50500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>53400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>57900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>60100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>58300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>52700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>56000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>56200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>62800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>50600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>50300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>50900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>51000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>53400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>50300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-80700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>53200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-51100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-92000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-60600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-458900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-51200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-267000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-34200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>305800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-48200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>23200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>18900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-8000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>351700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>27600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>195000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-106600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-9500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-108000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-16100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>117500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-12100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>48300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1644,120 +1692,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-72700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-343500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>52300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-78700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-99300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-255600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-352300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-41700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-158900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>188400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-36000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-25100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-72700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-343500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>52300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-78700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-99300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-255600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-352300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-41700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-158900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>188400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-36000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-25100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1812,8 +1869,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1821,55 +1881,58 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>9200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>18700</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-17400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>12700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-6800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>256100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>926000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>99200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-39300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>3900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-8600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1924,8 +1987,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1980,120 +2046,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-26900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-200</v>
       </c>
       <c r="T32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-63500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-324700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>51500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-79300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-99700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-273000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-359100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>214400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>767100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>81000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>170700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-75300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-21100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2148,125 +2223,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-63500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-324700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>51500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-79300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-99700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-273000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-359100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>214400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>767100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>81000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>170700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-75300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-21100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44163</v>
+      </c>
+      <c r="E38" s="2">
         <v>44072</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43981</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43617</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43526</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43435</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43344</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43253</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43162</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43071</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42980</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42889</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42798</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42700</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2287,8 +2371,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2309,64 +2394,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E41" s="3">
         <v>92700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>288300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>218200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>289500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>142200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>190500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>144400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>410000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>132500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>147100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>447300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>169800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>239000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>214400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>245400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>220000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2421,232 +2510,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1770700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1920900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1592800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1286800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1689800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1945600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1803800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1788700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1717800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2039600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1909000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1869100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1796900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1843300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1781200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1771100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1707600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1828600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1971300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1938000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1890000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1921600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1957000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1968900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1875900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1871900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1894300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1848300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1809600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1799500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1853900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2877400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2789200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1789500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2947400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2827000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>158700</v>
+      </c>
+      <c r="E45" s="3">
         <v>114100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>107700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>274100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>279900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>328600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>258600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>296700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>308300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>351300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>330500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>619300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2108800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>221600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>192800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1259200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>142100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3951400</v>
+      </c>
+      <c r="E46" s="3">
         <v>4065700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3878800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3700600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4216300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4385400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4128700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4101700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4330500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4371700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4196100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4735300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5929400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5181400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4977600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5065300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5017200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4938500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2701,120 +2805,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3938100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4001400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4074700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4119100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4189300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4215100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4269900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1308500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1335700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1350700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1401900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1431200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1479200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2188200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2218300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1526500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2291500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2281400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1399100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1413900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1424300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1467600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1482800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1489500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1508200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1556800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1570500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1588700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1990000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2011600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2301100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2462800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2503400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2398300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2600700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2636800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2869,8 +2982,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2925,64 +3041,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E52" s="3">
         <v>139300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>143000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>165000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>540400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>583200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>622800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>624300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>846200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>854600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>741300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>811200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1630800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1666000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1760800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3486000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1749600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1754200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3037,64 +3159,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9429400</v>
+      </c>
+      <c r="E54" s="3">
         <v>9620200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9520900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9452400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10428800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10673200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10529700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7591400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8083000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8165700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8329500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8989300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11340600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11498300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11460100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11593800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11658900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11611000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3115,8 +3243,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3137,344 +3266,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1482500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1448700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1460300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1484100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1534300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1570200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1556400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1618600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1707200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1734000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1767800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1651400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1789500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1687900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1646500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1613900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1792600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1695800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E58" s="3">
         <v>6900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>16100</v>
       </c>
       <c r="K58" s="3">
         <v>16100</v>
       </c>
       <c r="L58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="M58" s="3">
         <v>18700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>20800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>20400</v>
-      </c>
-      <c r="P58" s="3">
-        <v>22500</v>
       </c>
       <c r="Q58" s="3">
         <v>22500</v>
       </c>
       <c r="R58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="S58" s="3">
         <v>17700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>22700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1166400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1125500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1169500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1273500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1342900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1278900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1277000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>808400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>997000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>938900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1030300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1791900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5096100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1270800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1339800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1373600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1256300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1331700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2656100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2581000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2637900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2766500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2886600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2859700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2845100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2443100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2720300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2691600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2817100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3464100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6905900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2981200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3008700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3005200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3071500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3051900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3217700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3524600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3340600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3096600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3586900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3857100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3604700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3478600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3420700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3508300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3163600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3370900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3017400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7120400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7217800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3273100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7252200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7220300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2945100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2911500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2928600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2914800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2939400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2995700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3044600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>482900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>488600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>509800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>536500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>553400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>592200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>663000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>673000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8758700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>689000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>722100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3529,8 +3677,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3585,8 +3736,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3641,64 +3795,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8818900</v>
+      </c>
+      <c r="E66" s="3">
         <v>9017200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8907100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8777800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9412900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9712600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9494500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6404700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6629500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6709700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6517100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7388300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10515500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10764700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10899500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10979700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11012800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10994300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3719,8 +3879,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3775,8 +3936,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3831,8 +3995,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3887,8 +4054,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3943,64 +4113,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5294600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5298900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5285700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5222200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4897500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4949000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4869700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4713200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4440300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4435700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4076600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4282500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5048200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5129200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5299900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5237200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5216000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5231000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4055,8 +4231,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4111,8 +4290,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4167,64 +4349,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>610500</v>
+      </c>
+      <c r="E76" s="3">
         <v>603000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>613800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>674500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1015900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>960600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1035200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1186700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1453400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1456000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1812300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1601000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>825100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>733600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>560600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>614100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>646100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>616700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4279,125 +4467,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44163</v>
+      </c>
+      <c r="E80" s="2">
         <v>44072</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43981</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43617</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43526</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43435</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43344</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43253</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43162</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43071</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42980</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42889</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42798</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42700</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-63500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-324700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>51500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-79300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-99700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-273000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-359100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>214400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>767100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>81000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>170700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-75300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-21100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4418,64 +4615,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E83" s="3">
         <v>87100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>79100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>79300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>82000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>83000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>83900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>86900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>86700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>89700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>94500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>93600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>18300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>132000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>142100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>144100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>143200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>280800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4530,8 +4731,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4586,8 +4790,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4642,8 +4849,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4698,8 +4908,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4754,64 +4967,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>222700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-358300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>418800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-267200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-65100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-231600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>365900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-272500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-90400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-95800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>64300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>205100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>92700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>54200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>152700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4832,64 +5051,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-34600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-42600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-45100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-43100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-41000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-57600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-46700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-44600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-48000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-45100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-61700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-40800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-38300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>135200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-107100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-509200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4944,8 +5167,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5000,64 +5226,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>57900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>12300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-46800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-48000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-46100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-45600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>554300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3262200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>163500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-54300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-58200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-91900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-124600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-247800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5078,8 +5310,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5134,8 +5367,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5190,8 +5426,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5246,8 +5485,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5302,64 +5544,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-278000</v>
+      </c>
+      <c r="E100" s="3">
         <v>185100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>212700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-467800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-283800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>265700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>159200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>12000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-91900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>303600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-764200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2888900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-297000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-126300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-65500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>56900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>56000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5414,60 +5662,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-195600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>70100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-71300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>147300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-48300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>46100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-265700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>277600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>277500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-69200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>24500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-31000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>25400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>83900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>RAD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,264 +665,277 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44254</v>
+      </c>
+      <c r="E7" s="2">
         <v>44163</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44072</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43981</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43617</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43526</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43435</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43344</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43253</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43162</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43071</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42980</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42889</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42798</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42700</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5916900</v>
+      </c>
+      <c r="E8" s="3">
         <v>6117000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5982000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6027400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5727200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5462300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5366300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5372600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5379600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5450100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5421400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5388500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5394300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5353200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5345000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5436500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5903400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5669100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11355000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4779100</v>
+      </c>
+      <c r="E9" s="3">
         <v>4913900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4821600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4829100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4460600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4273300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4221800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4245900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4215300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4268000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4260200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4219700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4124500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4166400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4183300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4274600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4554300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4424300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8884200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1137800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1203100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1160400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1198300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1266600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1189000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1144500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1126700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1164300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1182100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1161200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1168800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1269800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1186800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1161700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1161900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1349100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1244800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2470800</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -944,8 +957,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,8 +1017,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1062,67 +1079,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
         <v>19600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>29400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>69300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>52600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-30300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>26600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>43800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>55900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>414800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>309400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-639700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>25600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>7200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1180,8 +1203,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1200,126 +1226,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5949800</v>
+      </c>
+      <c r="E17" s="3">
         <v>6077700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5944000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6059800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5655600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5352700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5358800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5409000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5414400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5413200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5829000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5382800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5615900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5336900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5003300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5439600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5833000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5600100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11252500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E18" s="3">
         <v>39300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>38000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-32400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>71600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>109600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-36400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-34800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>36900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-407600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-221600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>341700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>70400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>69000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1341,303 +1374,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E20" s="3">
         <v>16300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-9900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>26900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>15000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>200</v>
       </c>
       <c r="U20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E21" s="3">
         <v>138900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>124000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>48900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>141000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>193000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>92100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>50200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>79000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>124000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-312900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>106100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-122700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>111800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>452300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>103900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>340400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>92900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>383600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E22" s="3">
         <v>50800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>50000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>50500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>53400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>57900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>60100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>58300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>52700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>56000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>56200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>62800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>50600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>50300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>50900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>51000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>53400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>50300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E23" s="3">
         <v>4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-80700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>53200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-51100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-92000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-60600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-458900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-51200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-267000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>305800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-48200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>23200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>18900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-8000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>351700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>195000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-106600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-9500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-108000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>117500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-12100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>48300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1695,126 +1744,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E26" s="3">
         <v>4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-72700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-343500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>52300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-78700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-99300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-255600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-352300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-41700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-158900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>188400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-36000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-25100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E27" s="3">
         <v>4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-72700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-343500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>52300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-78700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-99300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-255600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-352300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-41700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-158900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>188400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-36000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-25100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>23600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1872,8 +1930,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1884,55 +1945,58 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>9200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>18700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-17400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>12700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-6800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>256100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>926000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>99200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-17600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-39300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>3900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-8600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1990,8 +2054,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2049,126 +2116,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>9900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-26900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-15000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-200</v>
       </c>
       <c r="U32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E33" s="3">
         <v>4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-63500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-324700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>51500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-79300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-99700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-273000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-359100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>214400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>767100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>81000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>170700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-75300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-21100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>15000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2226,131 +2302,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E35" s="3">
         <v>4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-63500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-324700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>51500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-79300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-99700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-273000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-359100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>214400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>767100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>81000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>170700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-75300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-21100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>15000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44254</v>
+      </c>
+      <c r="E38" s="2">
         <v>44163</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44072</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43981</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43617</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43526</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43435</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43344</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43253</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43162</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43071</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42980</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42889</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42798</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42700</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2372,8 +2457,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2395,67 +2481,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>160900</v>
+      </c>
+      <c r="E41" s="3">
         <v>50800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>92700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>288300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>218200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>289500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>142200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>190500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>144400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>410000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>132500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>147100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>447300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>169800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>239000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>214400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>245400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>220000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2513,244 +2603,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1462400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1770700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1920900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1592800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1286800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1689800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1945600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1803800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1788700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1717800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2039600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1909000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1869100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1796900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1843300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1781200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1771100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1707600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1828600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1864900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1971300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1938000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1890000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1921600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1957000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1968900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1875900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1871900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1894300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1848300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1809600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1799500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1853900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2877400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2789200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1789500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2947400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2827000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E45" s="3">
         <v>158700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>114100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>107700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>274100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>279900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>328600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>258600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>296700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>308300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>351300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>330500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>619300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2108800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>221600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>192800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1259200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>142100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3595200</v>
+      </c>
+      <c r="E46" s="3">
         <v>3951400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4065700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3878800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3700600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4216300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4385400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4128700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4101700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4330500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4371700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4196100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4735300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5929400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5181400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4977600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5065300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5017200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4938500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2808,126 +2913,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4144600</v>
+      </c>
+      <c r="E48" s="3">
         <v>3938100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4001400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4074700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4119100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4189300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4215100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4269900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1308500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1335700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1350700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1401900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1431200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1479200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2188200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2218300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1526500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2291500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2281400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1448700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1399100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1413900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1424300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1467600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1482800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1489500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1508200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1556800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1570500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1588700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1990000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2011600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2301100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2462800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2503400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2398300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2600700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2636800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2985,8 +3099,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3044,67 +3161,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E52" s="3">
         <v>140700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>139300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>143000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>165000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>540400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>583200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>622800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>624300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>846200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>854600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>741300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>811200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1630800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1666000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1760800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3486000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1749600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1754200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3162,67 +3285,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9335400</v>
+      </c>
+      <c r="E54" s="3">
         <v>9429400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9620200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9520900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9452400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10428800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10673200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10529700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7591400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8083000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8165700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8329500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8989300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11340600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11498300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11460100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11593800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11658900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11611000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3244,8 +3373,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3267,362 +3397,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1437400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1482500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1448700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1460300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1484100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1534300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1570200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1556400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1618600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1707200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1734000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1767800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1651400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1789500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1687900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1646500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1613900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1792600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1695800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E58" s="3">
         <v>7100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>16100</v>
       </c>
       <c r="L58" s="3">
         <v>16100</v>
       </c>
       <c r="M58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="N58" s="3">
         <v>18700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>19000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>20800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>20400</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>22500</v>
       </c>
       <c r="R58" s="3">
         <v>22500</v>
       </c>
       <c r="S58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="T58" s="3">
         <v>17700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>22700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1159100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1166400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1125500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1169500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1273500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1342900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1278900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1277000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>808400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>997000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>938900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1030300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1791900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5096100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1270800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1339800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1373600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1256300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1331700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2602900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2656100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2581000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2637900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2766500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2886600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2859700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2845100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2443100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2720300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2691600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2817100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3464100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6905900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2981200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3008700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3005200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3071500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3051900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3079800</v>
+      </c>
+      <c r="E61" s="3">
         <v>3217700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3524600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3340600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3096600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3586900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3857100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3604700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3478600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3420700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3508300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3163600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3370900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3017400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7120400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7217800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3273100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7252200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7220300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3037500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2945100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2911500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2928600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2914800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2939400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2995700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3044600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>482900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>488600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>509800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>536500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>553400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>592200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>663000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>673000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8758700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>689000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>722100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3680,8 +3829,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3739,8 +3891,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3798,67 +3953,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8720300</v>
+      </c>
+      <c r="E66" s="3">
         <v>8818900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9017200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8907100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8777800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9412900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9712600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9494500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6404700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6629500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6709700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6517100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7388300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10515500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10764700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10899500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10979700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11012800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10994300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3880,8 +4041,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3939,8 +4101,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3998,8 +4163,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4057,8 +4225,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4116,67 +4287,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5313100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5294600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5298900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5285700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5222200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4897500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4949000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4869700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4713200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4440300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4435700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4076600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4282500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5048200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5129200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5299900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5237200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5216000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5231000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4234,8 +4411,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4293,8 +4473,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4352,67 +4535,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>615200</v>
+      </c>
+      <c r="E76" s="3">
         <v>610500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>603000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>613800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>674500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1015900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>960600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1035200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1186700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1453400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1456000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1812300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1601000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>825100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>733600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>560600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>614100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>646100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>616700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4470,131 +4659,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44254</v>
+      </c>
+      <c r="E80" s="2">
         <v>44163</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44072</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43981</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43617</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43526</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43435</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43344</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43253</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43162</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43071</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42980</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42889</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42798</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42700</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E81" s="3">
         <v>4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-63500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-324700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>51500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-79300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-99700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-273000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-359100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>214400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>767100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>81000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>170700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-75300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-21100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>15000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4616,67 +4814,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E83" s="3">
         <v>83300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>87100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>79100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>79300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>82000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>83000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>83900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>86900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>86700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>89700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>94500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>93600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>18300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>132000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>142100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>144100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>143200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>280800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4734,8 +4936,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4793,8 +4998,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4852,8 +5060,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4911,8 +5122,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4970,67 +5184,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>359000</v>
+      </c>
+      <c r="E89" s="3">
         <v>222700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-358300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>418800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-267200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-65100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-231600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>365900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-272500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-90400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-95800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>64300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>205100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>92700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>54200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>152700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5052,67 +5272,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-67800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-64300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-34600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-42600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-45100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-43100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-41000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-57600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-46700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-44600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-48000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-45100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-61700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-40800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-38300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>135200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-107100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-509200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5170,8 +5394,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5229,67 +5456,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="E94" s="3">
         <v>13300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>57900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>12300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-46800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-48000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-46100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-45600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>554300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3262200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>163500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-54300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-58200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-91900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-124600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-247800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5311,8 +5544,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5370,8 +5604,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5429,8 +5666,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5488,8 +5728,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5547,67 +5790,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-185100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-278000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>185100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>212700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-467800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-283800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>265700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>159200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>12000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-91900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>303600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-764200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2888900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-297000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-126300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-65500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>56900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>56000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5665,63 +5914,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-41900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-195600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>70100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-71300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>147300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-48300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>46100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-265700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>277600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-14600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>277500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-69200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>24500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-31000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>25400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>83900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>RAD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,277 +665,290 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44345</v>
+      </c>
+      <c r="E7" s="2">
         <v>44254</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44163</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44072</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43981</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43617</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43526</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43435</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43344</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43253</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43162</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43071</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42980</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42889</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42798</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42700</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6161000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5916900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6117000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5982000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6027400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5727200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5462300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5366300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5372600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5379600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5450100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5421400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5388500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5394300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5353200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5345000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5436500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5903400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5669100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11355000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4876100</v>
+      </c>
+      <c r="E9" s="3">
         <v>4779100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4913900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4821600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4829100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4460600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4273300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4221800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4245900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4215300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4268000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4260200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4219700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4124500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4166400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4183300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4274600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4554300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4424300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8884200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1284900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1137800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1203100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1160400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1198300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1266600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1189000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1144500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1126700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1164300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1182100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1161200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1168800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1269800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1186800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1161700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1161900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1349100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1244800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2470800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -958,8 +971,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1020,8 +1034,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1082,70 +1099,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>19600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>29400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>69300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>52600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-30300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>26600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>43800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>55900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>414800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>309400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-639700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>25600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>7200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1206,8 +1229,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1227,132 +1253,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6130700</v>
+      </c>
+      <c r="E17" s="3">
         <v>5949800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6077700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5944000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6059800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5655600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5352700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5358800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5409000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5414400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5413200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5829000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5382800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5615900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5336900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5003300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5439600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5833000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5600100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11252500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-32900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>39300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>38000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-32400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>71600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>109600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-36400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-34800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>36900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-407600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-221600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>341700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>70400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>69000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1375,318 +1408,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E20" s="3">
         <v>51800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>16300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-9900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>26900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>15000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6200</v>
-      </c>
-      <c r="U20" s="3">
-        <v>200</v>
       </c>
       <c r="V20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>112700</v>
+      </c>
+      <c r="E21" s="3">
         <v>96400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>138900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>124000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>48900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>141000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>193000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>92100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>50200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>79000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>124000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-312900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>106100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-122700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>111800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>452300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>103900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>340400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>92900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>383600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E22" s="3">
         <v>50000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>50800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>50000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>50500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>53400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>57900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>60100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>58300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>52700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>56000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>56200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>62800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>50600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>50300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>50900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>51000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>53400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>50300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-80700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>53200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-51100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-92000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-60600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-458900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-51200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-267000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-34200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>305800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-48200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>23200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>18900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-12600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-8000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>351700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>27600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>195000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-106600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-9500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-108000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-16100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>117500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-12100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>48300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1747,132 +1796,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-72700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-343500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>52300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-78700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-99300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-255600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-352300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-41700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-158900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-18200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>188400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-36000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-25100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>23600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-72700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-343500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>52300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-78700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-99300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-255600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-352300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-41700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-158900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-18200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>188400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-36000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-25100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>23600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1933,8 +1991,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1948,55 +2009,58 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>9200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>18700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-17400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>12700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-6800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>256100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>926000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>99200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-17600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-39300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>3900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-8600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2057,8 +2121,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2119,132 +2186,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-51800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-16300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>9900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-26900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-15000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6200</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-200</v>
       </c>
       <c r="V32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-63500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-324700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>51500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-79300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-99700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-273000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-359100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>214400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>767100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>81000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>170700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-75300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-21100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>15000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2305,137 +2381,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-63500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-324700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>51500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-79300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-99700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-273000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-359100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>214400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>767100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>81000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>170700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-75300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-21100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>15000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44345</v>
+      </c>
+      <c r="E38" s="2">
         <v>44254</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44163</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44072</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43981</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43617</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43526</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43435</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43344</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43253</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43162</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43071</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42980</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42889</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42798</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42700</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2458,8 +2543,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2482,70 +2568,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E41" s="3">
         <v>160900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>50800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>92700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>288300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>218200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>289500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>142200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>190500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>144400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>410000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>132500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>147100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>447300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>169800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>239000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>214400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>245400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>220000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2606,256 +2696,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1612600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1462400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1770700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1920900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1592800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1286800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1689800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1945600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1803800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1788700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1717800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2039600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1909000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1869100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1796900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1843300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1781200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1771100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1707600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1828600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1857000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1864900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1971300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1938000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1890000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1921600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1957000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1968900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1875900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1871900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1894300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1848300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1809600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1799500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1853900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2877400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2789200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1789500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2947400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2827000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E45" s="3">
         <v>106900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>158700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>114100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>107700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>274100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>279900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>328600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>258600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>296700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>308300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>351300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>330500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>619300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2108800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>221600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>192800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1259200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>142100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3685000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3595200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3951400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4065700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3878800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3700600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4216300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4385400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4128700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4101700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4330500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4371700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4196100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4735300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5929400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5181400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4977600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5065300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5017200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4938500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2916,132 +3021,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4088200</v>
+      </c>
+      <c r="E48" s="3">
         <v>4144600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3938100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4001400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4074700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4119100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4189300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4215100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4269900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1308500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1335700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1350700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1401900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1431200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1479200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2188200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2218300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1526500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2291500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2281400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1448700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1399100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1413900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1424300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1467600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1482800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1489500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1508200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1556800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1570500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1588700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1990000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2011600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2301100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2462800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2503400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2398300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2600700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2636800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3102,8 +3216,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3164,70 +3281,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>144300</v>
+      </c>
+      <c r="E52" s="3">
         <v>147000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>140700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>139300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>143000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>165000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>540400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>583200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>622800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>624300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>846200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>854600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>741300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>811200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1630800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1666000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1760800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3486000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1749600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1754200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3288,70 +3411,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9351400</v>
+      </c>
+      <c r="E54" s="3">
         <v>9335400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9429400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9620200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9520900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9452400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10428800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10673200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10529700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7591400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8083000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8165700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8329500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8989300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11340600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11498300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11460100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11593800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11658900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11611000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3374,8 +3503,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3398,380 +3528,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1537500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1437400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1482500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1448700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1460300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1484100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1534300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1570200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1556400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1618600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1707200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1734000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1767800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1651400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1789500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1687900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1646500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1613900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1792600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1695800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E58" s="3">
         <v>6400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>16100</v>
       </c>
       <c r="M58" s="3">
         <v>16100</v>
       </c>
       <c r="N58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="O58" s="3">
         <v>18700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>19000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>20800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>20400</v>
-      </c>
-      <c r="R58" s="3">
-        <v>22500</v>
       </c>
       <c r="S58" s="3">
         <v>22500</v>
       </c>
       <c r="T58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="U58" s="3">
         <v>17700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>22700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1194800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1159100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1166400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1125500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1169500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1273500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1342900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1278900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1277000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>808400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>997000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>938900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1030300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1791900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5096100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1270800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1339800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1373600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1256300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1331700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2739500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2602900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2656100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2581000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2637900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2766500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2886600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2859700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2845100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2443100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2720300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2691600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2817100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3464100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6905900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2981200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3008700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3005200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3071500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3051900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3030700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3079800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3217700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3524600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3340600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3096600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3586900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3857100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3604700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3478600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3420700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3508300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3163600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3370900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3017400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7120400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7217800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3273100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7252200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7220300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2977300</v>
+      </c>
+      <c r="E62" s="3">
         <v>3037500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2945100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2911500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2928600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2914800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2939400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2995700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3044600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>482900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>488600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>509800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>536500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>553400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>592200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>663000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>673000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8758700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>689000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>722100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3832,8 +3981,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3894,8 +4046,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3956,70 +4111,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8747500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8720300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8818900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9017200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8907100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8777800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9412900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9712600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9494500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6404700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6629500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6709700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6517100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7388300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10515500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10764700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10899500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10979700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11012800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10994300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4042,8 +4203,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4104,8 +4266,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4166,8 +4331,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4228,8 +4396,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4290,70 +4461,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5326200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5313100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5294600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5298900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5285700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5222200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4897500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4949000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4869700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4713200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4440300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4435700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4076600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4282500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5048200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5129200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5299900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5237200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5216000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5231000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4414,8 +4591,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4476,8 +4656,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4538,70 +4721,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>604000</v>
+      </c>
+      <c r="E76" s="3">
         <v>615200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>610500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>603000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>613800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>674500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1015900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>960600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1035200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1186700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1453400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1456000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1812300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1601000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>825100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>733600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>560600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>614100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>646100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>616700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4662,137 +4851,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44345</v>
+      </c>
+      <c r="E80" s="2">
         <v>44254</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44163</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44072</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43981</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43617</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43526</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43435</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43344</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43253</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43162</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43071</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42980</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42889</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42798</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42700</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-63500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-324700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>51500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-79300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-99700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-273000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-359100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>214400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>767100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>81000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>170700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-75300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-21100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>15000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4815,70 +5013,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E83" s="3">
         <v>77600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>83300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>87100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>79100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>79300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>82000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>83000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>83900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>86900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>86700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>89700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>94500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>93600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>18300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>132000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>142100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>144100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>143200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>280800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4939,8 +5141,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5001,8 +5206,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5063,8 +5271,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5125,8 +5336,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5187,70 +5401,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E89" s="3">
         <v>359000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>222700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-358300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>418800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-267200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-65100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-231600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>365900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-272500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-90400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-95800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>64300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>205100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>92700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>54200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>152700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5273,70 +5493,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-67800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-64300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-28500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-42600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-45100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-43100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-41000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-57600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-46700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-44600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-48000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-45100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-61700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-40800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-38300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>135200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-107100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-509200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5397,8 +5621,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5459,70 +5686,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-63800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>13300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>57900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>12300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-46800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-48000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-46100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-45600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>554300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3262200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>163500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-54300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-58200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-91900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-124600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-247800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5545,8 +5778,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5607,8 +5841,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5669,8 +5906,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5731,8 +5971,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5793,70 +6036,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-185100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-278000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>185100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>212700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-467800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-283800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>265700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>159200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>12000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-91900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>303600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-764200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2888900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-297000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-126300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-65500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>56900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>56000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5917,66 +6166,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E102" s="3">
         <v>110100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-41900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-195600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>70100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-71300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>147300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-48300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>46100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-265700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>277600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>277500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-69200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>24500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-31000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>25400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>83900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>RAD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,290 +665,303 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44436</v>
+      </c>
+      <c r="E7" s="2">
         <v>44345</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44254</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44163</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44072</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43981</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43617</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43526</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43435</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43344</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43253</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43162</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43071</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42980</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42889</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42798</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42700</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6113000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6161000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5916900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6117000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5982000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6027400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5727200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5462300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5366300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5372600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5379600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5450100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5421400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5388500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5394300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5353200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5345000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5436500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5903400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5669100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11355000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4867100</v>
+      </c>
+      <c r="E9" s="3">
         <v>4876100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4779100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4913900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4821600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4829100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4460600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4273300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4221800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4245900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4215300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4268000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4260200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4219700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4124500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4166400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4183300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4274600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4554300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4424300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8884200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1245900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1284900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1137800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1203100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1160400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1198300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1266600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1189000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1144500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1126700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1164300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1182100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1161200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1168800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1269800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1186800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1161700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1161900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1349100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1244800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2470800</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -972,8 +985,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1037,8 +1051,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1102,73 +1119,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E14" s="3">
         <v>15200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>19600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>29400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>69300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>52600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-30300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>26600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>43800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>55900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>414800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>309400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-639700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>25600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>7200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1232,8 +1255,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1254,138 +1280,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6149000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6130700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5949800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6077700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5944000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6059800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5655600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5352700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5358800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5409000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5414400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5413200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5829000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5382800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5615900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5336900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5003300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5439600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5833000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5600100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11252500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E18" s="3">
         <v>30300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-32900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>39300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>38000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-32400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>71600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>109600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-36400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-34800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>36900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-407600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-221600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>16300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>341700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>70400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>69000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1409,333 +1442,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E20" s="3">
         <v>6500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>51800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>26900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>15000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6200</v>
-      </c>
-      <c r="V20" s="3">
-        <v>200</v>
       </c>
       <c r="W20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E21" s="3">
         <v>112700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>96400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>138900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>124000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>48900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>141000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>193000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>92100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>50200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>79000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>124000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-312900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>106100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-122700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>111800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>452300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>103900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>340400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>92900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>383600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E22" s="3">
         <v>49100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>50000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>50800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>50000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>50500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>53400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>57900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>60100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>58300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>56000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>56200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>62800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>50600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>50300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>50900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>51000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>53400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>50300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-80700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>53200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-51100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-92000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-60600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-458900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-51200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-267000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-34200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>305800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-48200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>23200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>18900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-12600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-8000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>351700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>195000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-106600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-108000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-16100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>117500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-12100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>48300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-4700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1799,138 +1848,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-72700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-343500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>52300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-78700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-99300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-255600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-352300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-41700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-158900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-18200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>188400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-36000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-25100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>23600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-72700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-343500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>52300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-78700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-99300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-255600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-352300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-41700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-158900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-18200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>188400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-36000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-25100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>23600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1994,8 +2052,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2012,55 +2073,58 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>9200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>18700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-17400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>12700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-6800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>256100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>926000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>99200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-17600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-39300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>3900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-8600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,8 +2188,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2189,138 +2256,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-51800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-26900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-15000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6200</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-200</v>
       </c>
       <c r="W32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-63500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-324700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>51500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-79300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-99700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-273000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-359100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>214400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>767100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>81000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>170700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-75300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-21100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>15000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2384,143 +2460,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-63500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-324700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>51500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-79300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-99700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-273000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-359100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>214400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>767100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>81000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>170700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-75300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-21100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>15000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44436</v>
+      </c>
+      <c r="E38" s="2">
         <v>44345</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44254</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44163</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44072</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43981</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43617</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43526</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43435</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43344</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43253</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43162</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43071</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42980</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42889</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42798</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42700</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2544,8 +2629,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2569,73 +2655,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>146600</v>
+      </c>
+      <c r="E41" s="3">
         <v>118500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>160900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>50800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>92700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>288300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>218200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>289500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>142200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>190500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>144400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>410000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>132500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>147100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>447300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>169800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>239000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>214400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>245400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>220000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2699,268 +2789,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1662400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1612600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1462400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1770700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1920900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1592800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1286800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1689800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1945600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1803800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1788700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1717800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2039600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1909000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1869100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1796900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1843300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1781200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1771100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1707600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1828600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1892000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1857000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1864900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1971300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1938000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1890000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1921600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1957000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1968900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1875900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1871900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1894300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1848300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1809600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1799500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1853900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2877400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2789200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1789500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2947400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2827000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>131800</v>
+      </c>
+      <c r="E45" s="3">
         <v>96900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>106900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>158700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>114100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>107700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>274100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>279900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>328600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>258600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>296700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>308300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>351300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>330500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>619300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2108800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>221600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>192800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1259200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>142100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3832800</v>
+      </c>
+      <c r="E46" s="3">
         <v>3685000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3595200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3951400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4065700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3878800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3700600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4216300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4385400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4128700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4101700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4330500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4371700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4196100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4735300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5929400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5181400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4977600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5065300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5017200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4938500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3024,138 +3129,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3998900</v>
+      </c>
+      <c r="E48" s="3">
         <v>4088200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4144600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3938100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4001400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4074700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4119100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4189300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4215100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4269900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1308500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1335700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1350700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1401900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1431200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1479200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2188200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2218300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1526500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2291500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2281400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1424000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1434000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1448700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1399100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1413900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1424300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1467600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1482800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1489500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1508200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1556800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1570500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1588700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1990000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2011600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2301100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2462800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2503400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2398300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2600700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2636800</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3219,8 +3333,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3284,73 +3401,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E52" s="3">
         <v>144300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>147000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>140700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>139300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>143000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>165000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>540400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>583200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>622800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>624300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>846200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>854600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>741300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>811200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1630800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1666000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1760800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3486000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1749600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1754200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3414,73 +3537,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9363600</v>
+      </c>
+      <c r="E54" s="3">
         <v>9351400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9335400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9429400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9620200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9520900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9452400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10428800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10673200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10529700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7591400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8083000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8165700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8329500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8989300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11340600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11498300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11460100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11593800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11658900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11611000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3504,8 +3633,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3529,398 +3659,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1523600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1537500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1437400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1482500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1448700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1460300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1484100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1534300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1570200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1556400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1618600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1707200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1734000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1767800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1651400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1789500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1687900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1646500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1613900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1792600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1695800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E58" s="3">
         <v>7300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>16100</v>
       </c>
       <c r="N58" s="3">
         <v>16100</v>
       </c>
       <c r="O58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="P58" s="3">
         <v>18700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>19000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>20800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>20400</v>
-      </c>
-      <c r="S58" s="3">
-        <v>22500</v>
       </c>
       <c r="T58" s="3">
         <v>22500</v>
       </c>
       <c r="U58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="V58" s="3">
         <v>17700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>22700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1260800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1194800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1159100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1166400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1125500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1169500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1273500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1342900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1278900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1277000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>808400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>997000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>938900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1030300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1791900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5096100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1270800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1339800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1373600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1256300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1331700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2791100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2739500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2602900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2656100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2581000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2637900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2766500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2886600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2859700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2845100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2443100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2720300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2691600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2817100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3464100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6905900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2981200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3008700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3005200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3071500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3051900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3130100</v>
+      </c>
+      <c r="E61" s="3">
         <v>3030700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3079800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3217700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3524600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3340600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3096600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3586900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3857100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3604700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3478600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3420700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3508300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3163600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3370900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3017400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7120400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7217800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3273100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7252200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7220300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2937100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2977300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3037500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2945100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2911500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2928600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2914800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2939400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2995700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3044600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>482900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>488600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>509800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>536500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>553400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>592200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>663000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>673000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8758700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>689000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>722100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3984,8 +4133,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4049,8 +4201,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4114,73 +4269,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8858300</v>
+      </c>
+      <c r="E66" s="3">
         <v>8747500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8720300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8818900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9017200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8907100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8777800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9412900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9712600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9494500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6404700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6629500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6709700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6517100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7388300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10515500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10764700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10899500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10979700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11012800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10994300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4204,8 +4365,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4269,8 +4431,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4334,8 +4499,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4399,8 +4567,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4464,73 +4635,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5426500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5326200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5313100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5294600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5298900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5285700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5222200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4897500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4949000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4869700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4713200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4440300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4435700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4076600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4282500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5048200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5129200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5299900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5237200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5216000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5231000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4594,8 +4771,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4659,8 +4839,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4724,73 +4907,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>505300</v>
+      </c>
+      <c r="E76" s="3">
         <v>604000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>615200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>610500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>603000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>613800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>674500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1015900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>960600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1035200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1186700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1453400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1456000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1812300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1601000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>825100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>733600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>560600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>614100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>646100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>616700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4854,143 +5043,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44436</v>
+      </c>
+      <c r="E80" s="2">
         <v>44345</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44254</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44163</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44072</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43981</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43617</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43526</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43435</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43344</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43253</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43162</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43071</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42980</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42889</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42798</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42700</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-63500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-324700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>51500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-79300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-99700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-273000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-359100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>214400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>767100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>81000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>170700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-75300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-21100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>15000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5014,73 +5212,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E83" s="3">
         <v>75900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>77600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>83300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>87100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>79100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>79300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>82000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>83000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>83900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>86900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>86700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>89700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>94500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>93600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>18300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>132000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>142100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>144100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>143200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>280800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5144,8 +5346,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5209,8 +5414,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5274,8 +5482,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5339,8 +5550,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5404,73 +5618,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E89" s="3">
         <v>13900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>359000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>222700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-358300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>418800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-267200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-65100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-231600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>365900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-272500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-90400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-95800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>64300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>205100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>92700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>54200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>152700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5494,73 +5714,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-59200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-67800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-64300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-28500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-42600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-45100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-43100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-41000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-57600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-46700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-44600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-45100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-61700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-40800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-38300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>135200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-107100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-509200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5624,8 +5848,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5689,73 +5916,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-54700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-63800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>13300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>57900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>12300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-46800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-46100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-45600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>554300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3262200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>163500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-54300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-58200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-91900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-124600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-247800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5779,8 +6012,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5844,8 +6078,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5909,8 +6146,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5974,8 +6214,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6039,73 +6282,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-185100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-278000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>185100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>212700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-467800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-283800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>265700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>159200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>12000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-91900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>303600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-764200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2888900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-297000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-126300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-65500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>56900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>56000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6169,69 +6418,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>110100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-41900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-195600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>70100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-71300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>147300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-48300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>46100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-265700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>277600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-14600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>277500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-69200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>24500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-31000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>25400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>83900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>RAD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,303 +665,315 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44527</v>
+      </c>
+      <c r="E7" s="2">
         <v>44436</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44345</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44254</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44163</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44072</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43981</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43617</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43526</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43435</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43344</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43253</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43162</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43071</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42980</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42889</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42798</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42700</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6228900</v>
+      </c>
+      <c r="E8" s="3">
         <v>6113000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6161000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5916900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6117000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5982000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6027400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5727200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5462300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5366300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5372600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5379600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5450100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5421400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5388500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5394300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5353200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5345000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5436500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5903400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5669100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11355000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4894500</v>
+      </c>
+      <c r="E9" s="3">
         <v>4867100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4876100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4779100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4913900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4821600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4829100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4460600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4273300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4221800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4245900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4215300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4268000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4260200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4219700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4124500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4166400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4183300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4274600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4554300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4424300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8884200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1334400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1245900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1284900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1137800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1203100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1160400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1198300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1266600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1189000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1144500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1126700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1164300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1182100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1161200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1168800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1269800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1186800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1161700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1161900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1349100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1244800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2470800</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,8 +998,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1054,8 +1067,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1122,76 +1138,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E14" s="3">
         <v>23800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>15200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>19600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>29400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>69300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>52600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-30300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>26600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>43800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>55900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>414800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>309400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-639700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>25600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>7200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1258,8 +1280,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1281,144 +1306,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6224200</v>
+      </c>
+      <c r="E17" s="3">
         <v>6149000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6130700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5949800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6077700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5944000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6059800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5655600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5352700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5358800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5409000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5414400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5413200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5829000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5382800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5615900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5336900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5003300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5439600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5833000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5600100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11252500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-36000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>30300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-32900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>39300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>38000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-32400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>71600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>109600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-36400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-34800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>36900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-407600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-221600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>16300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>341700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>70400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>69000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1443,348 +1475,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-12400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>51800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>16300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>26900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>15000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>6200</v>
-      </c>
-      <c r="W20" s="3">
-        <v>200</v>
       </c>
       <c r="X20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E21" s="3">
         <v>25500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>112700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>96400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>138900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>124000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>48900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>141000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>193000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>92100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>50200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>79000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>124000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-312900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>106100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-122700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>111800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>452300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>103900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>340400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>92900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>383600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E22" s="3">
         <v>48600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>49100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>50000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>50800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>50000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>50500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>53400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>57900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>60100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>58300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>52700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>56000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>56200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>62800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>50600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>50300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>50900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>51000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>53400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>50300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-97000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-80700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>53200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-51100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-92000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-60600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-458900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-51200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-267000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-34200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>305800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-48200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>23200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>18900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-12600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-8000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>351700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>195000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-106600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-9500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-108000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-16100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>117500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-12100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>48300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-4700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1851,144 +1899,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-72700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-343500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>52300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-78700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-99300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-255600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-352300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-41700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-158900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-18200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>188400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-36000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-25100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>23600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-72700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-343500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>52300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-78700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-99300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-255600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-352300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-41700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-158900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-18200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>188400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-36000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-25100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>23600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2055,8 +2112,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2076,55 +2136,58 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>9200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>18700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-17400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>12700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>256100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>926000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>99200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-17600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-39300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>3900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-8600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2191,8 +2254,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2259,144 +2325,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E32" s="3">
         <v>12400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-51800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-16300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-26900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-15000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-6200</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-200</v>
       </c>
       <c r="X32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-63500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-324700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-79300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-99700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-273000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-359100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>214400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>767100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>81000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>170700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-75300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-21100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>15000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2463,149 +2538,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-63500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-324700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-79300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-99700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-273000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-359100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>214400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>767100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>81000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>170700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-75300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-21100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>15000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44527</v>
+      </c>
+      <c r="E38" s="2">
         <v>44436</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44345</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44254</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44163</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44072</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43981</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43617</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43526</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43435</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43344</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43253</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43162</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43071</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42980</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42889</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42798</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42700</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2630,8 +2714,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2656,76 +2741,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E41" s="3">
         <v>146600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>118500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>160900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>50800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>92700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>288300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>218200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>289500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>142200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>190500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>144400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>410000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>132500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>147100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>447300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>169800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>239000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>214400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>245400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>220000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2792,280 +2881,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1844200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1662400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1612600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1462400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1770700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1920900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1592800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1286800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1689800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1945600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1803800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1788700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1717800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2039600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1909000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1869100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1796900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1843300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1781200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1771100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1707600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1828600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1949800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1892000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1857000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1864900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1971300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1938000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1890000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1921600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1957000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1968900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1875900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1871900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1894300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1848300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1809600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1799500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1853900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2877400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2789200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1789500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2947400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2827000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>106700</v>
+      </c>
+      <c r="E45" s="3">
         <v>131800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>96900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>106900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>158700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>114100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>107700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>274100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>279900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>328600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>258600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>296700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>308300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>351300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>330500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>619300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2108800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>221600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>192800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1259200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>142100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4056000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3832800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3685000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3595200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3951400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4065700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3878800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3700600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4216300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4385400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4128700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4101700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4330500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4371700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4196100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4735300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5929400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5181400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4977600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5065300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5017200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4938500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3132,144 +3236,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3930400</v>
+      </c>
+      <c r="E48" s="3">
         <v>3998900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4088200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4144600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3938100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4001400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4074700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4119100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4189300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4215100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4269900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1308500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1335700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1350700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1401900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1431200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1479200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2188200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2218300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1526500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2291500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2281400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1415500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1424000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1434000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1448700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1399100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1413900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1424300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1467600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1482800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1489500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1508200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1556800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1570500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1588700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1990000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2011600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2301100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2462800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2503400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2398300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2600700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2636800</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3336,8 +3449,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3404,76 +3520,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E52" s="3">
         <v>107900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>144300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>147000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>140700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>139300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>143000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>165000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>540400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>583200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>622800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>624300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>846200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>854600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>741300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>811200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1630800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1666000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1760800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3486000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1749600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1754200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3540,76 +3662,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9499100</v>
+      </c>
+      <c r="E54" s="3">
         <v>9363600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9351400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9335400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9429400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9620200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9520900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9452400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10428800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10673200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10529700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7591400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8083000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8165700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8329500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8989300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11340600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11498300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11460100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11593800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11658900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11611000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3634,8 +3762,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3660,416 +3789,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1547800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1523600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1537500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1437400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1482500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1448700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1460300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1484100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1534300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1570200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1556400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1618600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1707200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1734000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1767800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1651400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1789500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1687900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1646500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1613900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1792600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1695800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E58" s="3">
         <v>6700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>16100</v>
       </c>
       <c r="O58" s="3">
         <v>16100</v>
       </c>
       <c r="P58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>18700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>19000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>20800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>20400</v>
-      </c>
-      <c r="T58" s="3">
-        <v>22500</v>
       </c>
       <c r="U58" s="3">
         <v>22500</v>
       </c>
       <c r="V58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="W58" s="3">
         <v>17700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>22700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1395500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1260800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1194800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1159100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1166400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1125500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1169500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1273500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1342900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1278900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1277000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>808400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>997000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>938900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1030300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1791900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5096100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1270800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1339800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1373600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1256300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1331700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2949400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2791100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2739500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2602900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2656100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2581000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2637900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2766500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2886600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2859700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2845100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2443100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2720300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2691600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2817100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3464100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6905900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2981200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3008700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3005200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3071500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3051900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3182300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3130100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3030700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3079800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3217700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3524600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3340600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3096600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3586900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3857100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3604700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3478600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3420700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3508300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3163600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3370900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3017400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7120400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7217800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3273100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7252200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7220300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2895400</v>
+      </c>
+      <c r="E62" s="3">
         <v>2937100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2977300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3037500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2945100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2911500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2928600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2914800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2939400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2995700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3044600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>482900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>488600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>509800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>536500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>553400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>592200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>663000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>673000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8758700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>689000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>722100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4136,8 +4284,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4204,8 +4355,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4272,76 +4426,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9027100</v>
+      </c>
+      <c r="E66" s="3">
         <v>8858300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8747500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8720300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8818900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9017200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8907100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8777800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9412900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9712600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9494500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6404700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6629500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6709700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6517100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7388300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10515500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10764700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10899500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10979700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11012800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10994300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4366,8 +4526,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4434,8 +4595,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4502,8 +4666,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4570,8 +4737,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4638,76 +4808,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5462500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5426500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5326200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5313100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5294600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5298900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5285700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5222200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4897500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4949000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4869700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4713200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4440300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4435700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4076600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4282500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5048200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5129200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5299900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5237200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5216000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5231000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4774,8 +4950,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4842,8 +5021,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4910,76 +5092,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E76" s="3">
         <v>505300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>604000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>615200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>610500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>603000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>613800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>674500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1015900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>960600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1035200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1186700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1453400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1456000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1812300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1601000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>825100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>733600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>560600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>614100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>646100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>616700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5046,149 +5234,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44527</v>
+      </c>
+      <c r="E80" s="2">
         <v>44436</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44345</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44254</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44163</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44072</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43981</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43617</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43526</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43435</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43344</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43253</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43162</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43071</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42980</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42889</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42798</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42700</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-63500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-324700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-79300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-99700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-273000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-359100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>214400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>767100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>81000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>170700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-75300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-21100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>15000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5213,76 +5410,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E83" s="3">
         <v>73900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>75900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>77600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>83300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>87100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>79100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>79300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>82000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>83000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>83900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>86900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>86700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>89700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>94500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>93600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>18300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>132000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>142100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>144100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>143200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>280800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5349,8 +5550,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5417,8 +5621,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5485,8 +5692,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5553,8 +5763,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5621,76 +5834,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>25700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>359000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>222700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-358300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>418800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-267200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-65100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-231600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>365900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-272500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-90400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-95800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>64300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>205100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>92700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>54200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>152700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5715,76 +5934,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-46200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-59200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-67800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-64300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-28500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-42600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-45100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-43100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-41000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-57600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-46700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-44600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-48000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-45100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-61700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-40800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-38300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>135200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-107100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-509200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5851,8 +6074,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5919,76 +6145,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-54700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-63800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>13300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>57900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-46800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-46100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-45600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>554300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3262200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>163500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-54300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-58200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-91900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-124600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-247800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6013,8 +6245,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6081,8 +6314,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6149,8 +6385,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6217,8 +6456,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6285,76 +6527,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E100" s="3">
         <v>38200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-185100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-278000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>185100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>212700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-467800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-283800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>265700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>159200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>12000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-91900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>303600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-764200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2888900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-297000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-126300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-65500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>56900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>56000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6421,72 +6669,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E102" s="3">
         <v>28100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-42400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>110100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-41900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-195600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>70100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-71300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>147300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-48300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>46100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-265700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>277600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>277500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-69200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>24500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-31000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>25400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>83900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>RAD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,315 +665,328 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44618</v>
+      </c>
+      <c r="E7" s="2">
         <v>44527</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44436</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44345</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44254</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44163</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44072</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43981</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43617</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43526</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43435</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43344</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43253</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43162</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43071</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42980</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42889</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42798</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42700</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6065400</v>
+      </c>
+      <c r="E8" s="3">
         <v>6228900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6113000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6161000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5916900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6117000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5982000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6027400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5727200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5462300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5366300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5372600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5379600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5450100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5421400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5388500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5394300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5353200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5345000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5436500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5903400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5669100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11355000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4824100</v>
+      </c>
+      <c r="E9" s="3">
         <v>4894500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4867100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4876100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4779100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4913900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4821600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4829100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4460600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4273300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4221800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4245900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4215300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4268000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4260200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4219700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4124500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4166400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4183300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4274600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4554300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4424300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8884200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1241300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1334400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1245900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1284900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1137800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1203100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1160400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1198300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1266600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1189000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1144500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1126700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1164300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1182100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1161200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1168800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1269800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1186800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1161700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1161900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1349100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1244800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2470800</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -999,8 +1012,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1070,8 +1084,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1141,79 +1158,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>351500</v>
+      </c>
+      <c r="E14" s="3">
         <v>62500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>23800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>15200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>19600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>29400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>69300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>52600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-30300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>26600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>43800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>55900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>414800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>309400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-639700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>25600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>7200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1283,8 +1306,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1307,150 +1333,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6409500</v>
+      </c>
+      <c r="E17" s="3">
         <v>6224200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6149000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6130700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5949800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6077700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5944000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6059800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5655600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5352700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5358800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5409000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5414400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5413200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5829000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5382800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5615900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5336900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5003300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5439600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5833000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5600100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11252500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-344100</v>
+      </c>
+      <c r="E18" s="3">
         <v>4700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-36000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>30300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-32900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>39300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>38000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-32400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>71600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>109600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-36400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-34800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>36900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-407600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-221600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>16300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>341700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>70400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>69000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1476,363 +1509,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E20" s="3">
         <v>5900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>51800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>16300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>26900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>15000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>6200</v>
-      </c>
-      <c r="X20" s="3">
-        <v>200</v>
       </c>
       <c r="Y20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-276700</v>
+      </c>
+      <c r="E21" s="3">
         <v>83500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>25500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>112700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>96400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>138900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>124000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>48900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>141000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>193000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>92100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>50200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>79000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>124000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-312900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>106100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-122700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>111800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>452300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>103900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>340400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>92900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>383600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E22" s="3">
         <v>47800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>48600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>49100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>50000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>50800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>50000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>50500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>53400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>57900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>60100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>58300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>52700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>56000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>56200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>62800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>50600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>50300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>50900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>51000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>53400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>50300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-395800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-97000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-80700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>53200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-51100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-92000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-60600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-458900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-51200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-267000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-34200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>305800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-48200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>23200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>18900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-12600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-8000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>351700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>195000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-106600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-9500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-108000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-16100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>117500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-12100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>48300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1902,150 +1951,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-389100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-72700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-343500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>52300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-78700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-99300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-255600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-352300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-41700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-158900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-18200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>188400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-36000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-25100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>23600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-389100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-72700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-343500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>52300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-78700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-99300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-255600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-352300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-41700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-158900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-18200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>188400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-36000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-25100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>23600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2115,8 +2173,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2139,55 +2200,58 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>9200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>18700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-17400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>12700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-6800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>256100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>926000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>99200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-17600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-39300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>3900</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2257,8 +2321,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2328,150 +2395,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-51800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-16300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-26900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-15000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-6200</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-200</v>
       </c>
       <c r="Y32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-389100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-36100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-63500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-324700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>51500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-79300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-99700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-273000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-359100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>214400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>767100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>81000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>170700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-75300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-21100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>15000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2541,155 +2617,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-389100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-36100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-63500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-324700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>51500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-79300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-99700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-273000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-359100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>214400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>767100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>81000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>170700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-75300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-21100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>15000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44618</v>
+      </c>
+      <c r="E38" s="2">
         <v>44527</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44436</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44345</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44254</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44163</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44072</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43981</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43617</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43526</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43435</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43344</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43253</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43162</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43071</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42980</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42889</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42798</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42700</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2715,8 +2800,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2742,79 +2828,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E41" s="3">
         <v>155300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>146600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>118500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>160900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>92700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>288300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>218200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>289500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>142200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>190500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>144400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>410000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>132500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>147100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>447300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>169800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>239000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>214400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>245400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>220000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2884,150 +2974,159 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1343500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1844200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1662400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1612600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1462400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1770700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1920900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1592800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1286800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1689800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1945600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1803800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1788700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1717800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2039600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1909000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1869100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1796900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1843300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1781200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1771100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1707600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1828600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1959400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1949800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1892000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1857000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1864900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1971300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1938000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1890000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1921600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1957000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1968900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1875900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1871900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1894300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1848300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1809600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1799500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1853900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2877400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2789200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1789500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2947400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2827000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3035,141 +3134,147 @@
         <v>106700</v>
       </c>
       <c r="E45" s="3">
+        <v>106700</v>
+      </c>
+      <c r="F45" s="3">
         <v>131800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>96900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>106900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>158700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>114100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>107700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>274100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>279900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>328600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>258600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>296700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>308300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>351300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>330500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>619300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2108800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>221600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>192800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1259200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>142100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3449400</v>
+      </c>
+      <c r="E46" s="3">
         <v>4056000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3832800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3685000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3595200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3951400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4065700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3878800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3700600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4216300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4385400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4128700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4101700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4330500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4371700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4196100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4735300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5929400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5181400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4977600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5065300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5017200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4938500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3239,150 +3344,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3802700</v>
+      </c>
+      <c r="E48" s="3">
         <v>3930400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3998900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4088200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4144600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3938100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4001400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4074700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4119100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4189300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4215100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4269900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1308500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1335700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1350700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1401900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1431200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1479200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2188200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2218300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1526500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2291500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2281400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1170300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1415500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1424000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1434000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1448700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1399100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1413900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1424300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1467600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1482800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1489500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1508200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1556800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1570500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1588700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1990000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2011600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2301100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2462800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2503400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2398300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2600700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2636800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3452,8 +3566,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3523,79 +3640,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E52" s="3">
         <v>97200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>107900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>144300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>147000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>140700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>139300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>143000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>165000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>540400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>583200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>622800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>624300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>846200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>854600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>741300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>811200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1630800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1666000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1760800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3486000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1749600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1754200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3665,79 +3788,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8529000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9499100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9363600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9351400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9335400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9429400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9620200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9520900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9452400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10428800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10673200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10529700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7591400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8083000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8165700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8329500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8989300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11340600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11498300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11460100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11593800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11658900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11611000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3763,8 +3892,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3790,434 +3920,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1571300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1547800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1523600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1537500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1437400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1482500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1448700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1460300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1484100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1534300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1570200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1556400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1618600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1707200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1734000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1767800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1651400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1789500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1687900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1646500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1613900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1792600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1695800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E58" s="3">
         <v>6100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>16100</v>
       </c>
       <c r="P58" s="3">
         <v>16100</v>
       </c>
       <c r="Q58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="R58" s="3">
         <v>18700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>19000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>20800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>20400</v>
-      </c>
-      <c r="U58" s="3">
-        <v>22500</v>
       </c>
       <c r="V58" s="3">
         <v>22500</v>
       </c>
       <c r="W58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="X58" s="3">
         <v>17700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>22700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1356300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1395500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1260800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1194800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1159100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1166400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1125500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1169500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1273500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1342900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1278900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1277000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>808400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>997000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>938900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1030300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1791900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5096100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1270800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1339800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1373600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1256300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1331700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2933100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2949400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2791100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2739500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2602900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2656100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2581000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2637900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2766500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2886600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2859700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2845100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2443100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2720300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2691600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2817100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3464100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6905900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2981200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3008700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3005200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3071500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3051900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2747800</v>
+      </c>
+      <c r="E61" s="3">
         <v>3182300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3130100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3030700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3079800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3217700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3524600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3340600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3096600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3586900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3857100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3604700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3478600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3420700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3508300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3163600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3370900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3017400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7120400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7217800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3273100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7252200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7220300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2749100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2895400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2937100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2977300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3037500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2945100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2911500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2928600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2914800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2939400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2995700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3044600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>482900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>488600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>509800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>536500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>553400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>592200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>663000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>673000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8758700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>689000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>722100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4287,8 +4436,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4358,8 +4510,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4429,79 +4584,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8430000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9027100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8858300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8747500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8720300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8818900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9017200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8907100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8777800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9412900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9712600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9494500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6404700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6629500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6709700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6517100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7388300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10515500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10764700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10899500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10979700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11012800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10994300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4527,8 +4688,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4598,8 +4760,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4669,8 +4834,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4740,8 +4908,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4811,79 +4982,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5851600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5462500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5426500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5326200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5313100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5294600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5298900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5285700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5222200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4897500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4949000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4869700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4713200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4440300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4435700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4076600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4282500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5048200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5129200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5299900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5237200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5216000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-5231000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4953,8 +5130,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5024,8 +5204,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5095,79 +5278,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E76" s="3">
         <v>472000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>505300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>604000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>615200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>610500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>603000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>613800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>674500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1015900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>960600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1035200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1186700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1453400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1456000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1812300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1601000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>825100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>733600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>560600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>614100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>646100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>616700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5237,155 +5426,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44618</v>
+      </c>
+      <c r="E80" s="2">
         <v>44527</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44436</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44345</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44254</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44163</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44072</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43981</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43617</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43526</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43435</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43344</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43253</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43162</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43071</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42980</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42889</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42798</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42700</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-389100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-36100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-63500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-324700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>51500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-79300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-99700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-273000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-359100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>214400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>767100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>81000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>170700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-75300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-21100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>15000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5411,8 +5609,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5420,70 +5619,73 @@
         <v>73000</v>
       </c>
       <c r="E83" s="3">
+        <v>73000</v>
+      </c>
+      <c r="F83" s="3">
         <v>73900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>75900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>77600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>83300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>87100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>79100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>79300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>82000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>83000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>83900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>86900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>86700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>89700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>94500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>93600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>18300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>132000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>142100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>144100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>143200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>280800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5553,8 +5755,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5624,8 +5829,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5695,8 +5903,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5766,8 +5977,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5837,79 +6051,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>342700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>359000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>222700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-358300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>418800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-267200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-65100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-231600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>365900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-272500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-90400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-95800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>64300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>205100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>92700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>54200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>152700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5935,79 +6155,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-39600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-46200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-59200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-67800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-64300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-28500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-45100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-43100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-41000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-57600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-46700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-44600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-48000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-45100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-61700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-40800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-38300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>135200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-107100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-509200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6077,8 +6301,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6148,79 +6375,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-54700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-63800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>13300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>57900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>12300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-46800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-48000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-46100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-45600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>554300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3262200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>163500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-54300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-58200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-91900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-124600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-247800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6246,8 +6479,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6317,8 +6551,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6388,8 +6625,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6459,8 +6699,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6530,79 +6773,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-435500</v>
+      </c>
+      <c r="E100" s="3">
         <v>32500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>38200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-185100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-278000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>185100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>212700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-467800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-283800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>265700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>159200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>12000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-91900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>303600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-764200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2888900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-297000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-126300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-65500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>56900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>56000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6672,75 +6921,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-115600</v>
+      </c>
+      <c r="E102" s="3">
         <v>8700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>28100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-42400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>110100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-41900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-195600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>70100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-71300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>147300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-48300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>46100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-265700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>277600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>277500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-69200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>24500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-31000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>25400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>83900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>RAD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,328 +665,341 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44709</v>
+      </c>
+      <c r="E7" s="2">
         <v>44618</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44527</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44436</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44345</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44254</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44163</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44072</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43981</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43617</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43526</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43435</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43344</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43253</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43162</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43071</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42980</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42889</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42798</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42700</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6014600</v>
+      </c>
+      <c r="E8" s="3">
         <v>6065400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6228900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6113000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6161000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5916900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6117000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5982000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6027400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5727200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5462300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5366300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5372600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5379600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5450100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5421400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5388500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5394300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5353200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5345000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5436500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5903400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5669100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11355000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4817900</v>
+      </c>
+      <c r="E9" s="3">
         <v>4824100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4894500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4867100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4876100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4779100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4913900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4821600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4829100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4460600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4273300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4221800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4245900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4215300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4268000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4260200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4219700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4124500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4166400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4183300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4274600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4554300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4424300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8884200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1196700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1241300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1334400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1245900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1284900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1137800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1203100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1160400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1198300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1266600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1189000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1144500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1126700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1164300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1182100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1161200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1168800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1269800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1186800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1161700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1161900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1349100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1244800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2470800</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1013,8 +1026,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1101,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1161,82 +1178,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>89200</v>
+      </c>
+      <c r="E14" s="3">
         <v>351500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>62500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>23800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>15200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>19600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>29400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>69300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>52600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-30300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>26600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>43800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>55900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>414800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>309400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-639700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>25600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>7200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1309,8 +1332,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1334,156 +1360,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6102400</v>
+      </c>
+      <c r="E17" s="3">
         <v>6409500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6224200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6149000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6130700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5949800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6077700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5944000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6059800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5655600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5352700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5358800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5409000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5414400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5413200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5829000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5382800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5615900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5336900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5003300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5439600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5833000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5600100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>11252500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-87800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-344100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-36000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>30300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-32900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>39300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>38000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-32400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>71600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>109600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-36400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-34800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>36900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-407600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-221600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>16300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>341700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>70400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>69000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1510,378 +1543,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>51800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>16300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>26900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>15000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>6200</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>200</v>
       </c>
       <c r="Z20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-276700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>83500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>25500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>112700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>96400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>138900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>124000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>48900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>141000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>193000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>92100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>50200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>79000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>124000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-312900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>106100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-122700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>111800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>452300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>103900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>340400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>92900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>383600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E22" s="3">
         <v>46100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>47800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>48600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>49100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>50000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>50800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>50000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>53400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>57900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>60100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>58300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>52700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>56000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>56200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>62800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>50600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>50300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>50900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>51000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>53400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>50300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-106700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-395800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-97000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-80700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>53200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-51100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-92000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-60600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-18700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-458900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-51200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-267000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-34200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>305800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-48200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>23200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>18900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-12600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-8000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>351700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>27600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>195000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-106600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-9500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-108000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-16100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>117500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-12100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>48300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1954,156 +2003,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-110200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-389100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-72700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-343500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>52300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-78700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-99300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-255600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-352300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-41700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-158900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-18200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>188400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-36000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-25100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>23600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-110200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-389100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-72700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-343500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>52300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-78700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-99300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-255600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-352300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-41700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-158900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-18200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>188400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-36000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-25100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>23600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2176,13 +2234,16 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2203,55 +2264,58 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>9200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>18700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-17400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>12700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-6800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>256100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>926000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>99200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-17600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-39300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>3900</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-8600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2324,8 +2388,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2398,156 +2465,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E32" s="3">
         <v>5600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-51800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-16300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-26900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-15000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-6200</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-200</v>
       </c>
       <c r="Z32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-110200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-389100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-63500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-324700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>51500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-79300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-99700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-273000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-359100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>214400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>767100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>81000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>170700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-75300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-21100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>15000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2620,161 +2696,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-110200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-389100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-63500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-324700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>51500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-79300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-99700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-273000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-359100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>214400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>767100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>81000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>170700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-75300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-21100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>15000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44709</v>
+      </c>
+      <c r="E38" s="2">
         <v>44618</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44527</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44436</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44345</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44254</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44163</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44072</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43981</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43617</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43526</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43435</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43344</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43253</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43162</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43071</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42980</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42889</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42798</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42700</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2801,8 +2886,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2829,82 +2915,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E41" s="3">
         <v>39700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>155300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>146600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>118500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>160900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>50800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>92700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>288300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>218200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>289500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>142200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>190500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>144400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>410000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>132500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>147100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>447300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>169800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>239000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>214400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>245400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>220000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2977,304 +3067,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1449700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1343500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1844200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1662400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1612600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1462400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1770700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1920900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1592800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1286800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1689800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1945600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1803800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1788700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1717800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2039600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1909000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1869100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1796900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1843300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1781200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1771100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1707600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1828600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1974800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1959400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1949800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1892000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1857000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1864900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1971300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1938000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1890000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1921600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1957000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1968900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1875900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1871900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1894300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1848300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1809600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1799500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1853900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2877400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2789200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1789500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2947400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2827000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>106700</v>
+        <v>88900</v>
       </c>
       <c r="E45" s="3">
         <v>106700</v>
       </c>
       <c r="F45" s="3">
+        <v>106700</v>
+      </c>
+      <c r="G45" s="3">
         <v>131800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>96900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>106900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>158700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>114100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>107700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>274100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>279900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>328600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>258600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>296700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>308300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>351300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>330500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>619300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2108800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>221600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>192800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1259200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>142100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3569400</v>
+      </c>
+      <c r="E46" s="3">
         <v>3449400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4056000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3832800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3685000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3595200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3951400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4065700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3878800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3700600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4216300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4385400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4128700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4101700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4330500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4371700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4196100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4735300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5929400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5181400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4977600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5065300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5017200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4938500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3347,156 +3452,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3708500</v>
+      </c>
+      <c r="E48" s="3">
         <v>3802700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3930400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3998900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4088200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4144600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3938100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4001400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4074700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4119100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4189300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4215100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4269900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1308500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1335700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1350700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1401900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1431200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1479200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2188200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2218300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1526500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2291500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2281400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1162100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1170300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1415500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1424000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1434000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1448700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1399100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1413900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1424300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1467600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1482800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1489500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1508200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1556800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1570500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1588700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1990000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2011600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2301100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2462800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2503400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2398300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2600700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2636800</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3569,8 +3683,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3643,82 +3760,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>109700</v>
+      </c>
+      <c r="E52" s="3">
         <v>106600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>97200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>107900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>144300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>147000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>140700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>139300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>143000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>165000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>540400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>583200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>622800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>624300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>846200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>854600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>741300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>811200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1630800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1666000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1760800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3486000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1749600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1754200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3791,82 +3914,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8549800</v>
+      </c>
+      <c r="E54" s="3">
         <v>8529000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9499100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9363600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9351400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9335400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9429400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9620200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9520900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9452400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10428800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10673200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10529700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7591400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8083000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8165700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8329500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8989300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11340600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11498300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11460100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11593800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11658900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11611000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3893,8 +4022,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3921,452 +4051,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1461200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1571300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1547800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1523600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1537500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1437400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1482500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1448700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1460300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1484100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1534300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1570200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1556400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1618600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1707200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1734000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1767800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1651400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1789500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1687900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1646500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1613900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1792600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1695800</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11800</v>
-      </c>
-      <c r="P58" s="3">
-        <v>16100</v>
       </c>
       <c r="Q58" s="3">
         <v>16100</v>
       </c>
       <c r="R58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="S58" s="3">
         <v>18700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>19000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>20800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>20400</v>
-      </c>
-      <c r="V58" s="3">
-        <v>22500</v>
       </c>
       <c r="W58" s="3">
         <v>22500</v>
       </c>
       <c r="X58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="Y58" s="3">
         <v>17700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>22700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1362000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1356300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1395500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1260800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1194800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1159100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1166400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1125500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1169500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1273500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1342900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1278900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1277000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>808400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>997000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>938900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1030300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1791900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5096100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1270800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1339800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1373600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1256300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1331700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2828200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2933100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2949400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2791100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2739500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2602900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2656100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2581000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2637900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2766500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2886600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2859700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2845100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2443100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2720300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2691600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2817100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3464100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6905900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2981200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3008700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3005200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3071500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3051900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3040800</v>
+      </c>
+      <c r="E61" s="3">
         <v>2747800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3182300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3130100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3030700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3079800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3217700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3524600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3340600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3096600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3586900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3857100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3604700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3478600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3420700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3508300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3163600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3370900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3017400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7120400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7217800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3273100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7252200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7220300</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2689100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2749100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2895400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2937100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2977300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3037500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2945100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2911500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2928600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2914800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2939400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2995700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3044600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>482900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>488600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>509800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>536500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>553400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>592200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>663000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>673000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8758700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>689000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>722100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4439,8 +4588,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4513,8 +4665,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4587,82 +4742,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8558100</v>
+      </c>
+      <c r="E66" s="3">
         <v>8430000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9027100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8858300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8747500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8720300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8818900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9017200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8907100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8777800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9412900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9712600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9494500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6404700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6629500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6709700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6517100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7388300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10515500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10764700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10899500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10979700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11012800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10994300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4689,8 +4850,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4763,8 +4925,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4837,8 +5002,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4911,8 +5079,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4985,82 +5156,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5961800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5851600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5462500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5426500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5326200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5313100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5294600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5298900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5285700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5222200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4897500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4949000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4869700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4713200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4440300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4435700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4076600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4282500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5048200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5129200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5299900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5237200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-5216000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-5231000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5133,8 +5310,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5207,8 +5387,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5281,82 +5464,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E76" s="3">
         <v>99000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>472000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>505300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>604000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>615200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>610500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>603000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>613800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>674500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1015900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>960600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1035200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1186700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1453400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1456000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1812300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1601000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>825100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>733600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>560600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>614100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>646100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>616700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5429,161 +5618,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44709</v>
+      </c>
+      <c r="E80" s="2">
         <v>44618</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44527</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44436</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44345</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44254</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44163</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44072</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43981</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43617</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43526</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43435</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43344</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43253</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43162</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43071</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42980</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42889</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42798</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42700</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-110200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-389100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-63500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-324700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>51500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-79300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-99700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-273000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-359100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>214400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>767100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>81000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>170700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-75300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-21100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>15000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5610,82 +5808,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>73000</v>
+        <v>70100</v>
       </c>
       <c r="E83" s="3">
         <v>73000</v>
       </c>
       <c r="F83" s="3">
+        <v>73000</v>
+      </c>
+      <c r="G83" s="3">
         <v>73900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>75900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>77600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>83300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>87100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>79100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>79300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>82000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>83000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>83900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>86900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>86700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>89700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>94500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>93600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>18300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>132000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>142100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>144100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>143200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>280800</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5758,8 +5960,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5832,8 +6037,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5906,8 +6114,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5980,8 +6191,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6054,82 +6268,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-252200</v>
+      </c>
+      <c r="E89" s="3">
         <v>342700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>359000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>222700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-358300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>418800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-267200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-65100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-231600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>365900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-272500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-90400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-95800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>64300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>205100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>92700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>54200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>152700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6156,82 +6376,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-49100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-39600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-46200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-59200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-67800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-64300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-45100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-43100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-41000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-57600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-46700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-44600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-48000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-45100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-61700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-40800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-38300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>135200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-107100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-509200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6304,8 +6528,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6378,82 +6605,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-20700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-35800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-63800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>13300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>57900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>12300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-46800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-48000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-46100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-45600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>554300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3262200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>163500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-54300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-58200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-91900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-124600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-247800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6480,8 +6713,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6554,8 +6788,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6628,8 +6865,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6702,8 +6942,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6776,82 +7019,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>323200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-435500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>32500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>38200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-185100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-278000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>185100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>212700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-467800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-283800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>265700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>159200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>12000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-91900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>303600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-764200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2888900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-297000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-126300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-65500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>56900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>56000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6924,78 +7173,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-115600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-42400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>110100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-41900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-195600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>70100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-71300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>147300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-48300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>46100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-265700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>277600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-14600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>277500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-69200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>24500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-31000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>25400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>83900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>RAD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,341 +665,354 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44800</v>
+      </c>
+      <c r="E7" s="2">
         <v>44709</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44618</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44527</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44436</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44345</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44254</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44163</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44072</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43981</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43617</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43526</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43435</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43344</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43253</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43162</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43071</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42980</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42889</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42798</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42700</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5901100</v>
+      </c>
+      <c r="E8" s="3">
         <v>6014600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6065400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6228900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6113000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6161000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5916900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6117000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5982000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6027400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5727200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5462300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5366300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5372600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5379600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5450100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5421400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5388500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5394300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5353200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5345000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5436500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5903400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5669100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11355000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4746600</v>
+      </c>
+      <c r="E9" s="3">
         <v>4817900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4824100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4894500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4867100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4876100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4779100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4913900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4821600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4829100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4460600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4273300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4221800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4245900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4215300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4268000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4260200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4219700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4124500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4166400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4183300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4274600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4554300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4424300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8884200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1154500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1196700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1241300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1334400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1245900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1284900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1137800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1203100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1160400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1198300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1266600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1189000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1144500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1126700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1164300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1182100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1161200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1168800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1269800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1186800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1161700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1161900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1349100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1244800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2470800</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1027,8 +1040,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1104,8 +1118,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1181,85 +1198,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>269500</v>
+      </c>
+      <c r="E14" s="3">
         <v>89200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>351500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>62500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>23800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>15200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>19600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>29400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>69300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>52600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-30300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>26600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>43800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>55900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>414800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>10400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>309400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-639700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>4000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>25600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>7200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1335,8 +1358,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1361,162 +1387,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6196900</v>
+      </c>
+      <c r="E17" s="3">
         <v>6102400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6409500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6224200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6149000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6130700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5949800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6077700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5944000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6059800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5655600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5352700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5358800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5409000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5414400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5413200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5829000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5382800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5615900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5336900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5003300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5439600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5833000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5600100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>11252500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-295800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-87800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-344100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-36000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>30300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-32900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>39300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-32400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>71600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>109600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-36400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-34800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>36900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-407600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-221600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>16300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>341700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>70400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>69000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1544,393 +1577,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E20" s="3">
         <v>29200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-12400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>51800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>26900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>15000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>6200</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>200</v>
       </c>
       <c r="AA20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-198200</v>
+      </c>
+      <c r="E21" s="3">
         <v>11500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-276700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>83500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>25500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>112700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>96400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>138900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>124000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>48900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>141000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>193000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>92100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>50200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>79000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>124000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-312900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>106100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-122700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>111800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>452300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>103900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>340400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>92900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>383600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E22" s="3">
         <v>48100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>46100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>47800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>48600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>49100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>50000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>50800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>53400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>57900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>60100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>58300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>52700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>56000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>56200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>62800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>50600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>50300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>50900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>51000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>53400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>50300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-319300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-106700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-395800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-37200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-97000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-80700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>53200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-51100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-92000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-60600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-18700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-458900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-51200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-267000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-34200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>305800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-48200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>23200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>18900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-12600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-8000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>351700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>27600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>195000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-106600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-9500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-108000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-16100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>117500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-12100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>48300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2006,162 +2055,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-331300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-110200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-389100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-36100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-72700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-343500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>52300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-78700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-99300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-255600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-352300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-41700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-158900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-18200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>188400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-36000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-25100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>23600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-331300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-110200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-389100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-36100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-72700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-343500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>52300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-78700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-99300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-255600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-352300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-41700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-158900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-18200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>188400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-36000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-25100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>23600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2237,16 +2295,19 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2267,55 +2328,58 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>9200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>18700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-17400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>12700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-6800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>256100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>926000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>99200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-17600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-39300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>3900</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-8600</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2391,8 +2455,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2468,162 +2535,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-29200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>12400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-51800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-26900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-15000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-6200</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>-200</v>
       </c>
       <c r="AA32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-331300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-110200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-389100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-36100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-63500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-324700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>51500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-79300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-99700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-273000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-359100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>214400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>767100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>81000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>170700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-75300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-21100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>15000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2699,167 +2775,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-331300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-110200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-389100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-36100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-63500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-324700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>51500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-79300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-99700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-273000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-359100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>214400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>767100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>81000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>170700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-75300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-21100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>15000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44800</v>
+      </c>
+      <c r="E38" s="2">
         <v>44709</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44618</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44527</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44436</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44345</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44254</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44163</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44072</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43981</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43617</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43526</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43435</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43344</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43253</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43162</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43071</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42980</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42889</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42798</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42700</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2887,8 +2972,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2916,85 +3002,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E41" s="3">
         <v>56100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>155300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>146600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>118500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>160900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>50800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>92700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>288300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>218200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>289500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>142200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>190500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>144400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>410000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>132500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>147100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>447300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>169800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>239000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>214400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>245400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>220000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3070,316 +3160,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1564400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1449700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1343500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1844200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1662400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1612600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1462400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1770700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1920900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1592800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1286800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1689800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1945600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1803800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1788700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1717800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2039600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1909000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1869100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1796900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1843300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1781200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1771100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1707600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1828600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2026200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1974800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1959400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1949800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1892000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1857000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1864900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1971300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1938000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1890000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1921600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1957000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1968900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1875900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1871900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1894300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1848300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1809600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1799500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1853900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2877400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2789200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1789500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2947400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2827000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E45" s="3">
         <v>88900</v>
-      </c>
-      <c r="E45" s="3">
-        <v>106700</v>
       </c>
       <c r="F45" s="3">
         <v>106700</v>
       </c>
       <c r="G45" s="3">
+        <v>106700</v>
+      </c>
+      <c r="H45" s="3">
         <v>131800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>96900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>106900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>158700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>114100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>107700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>274100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>279900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>328600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>258600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>296700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>308300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>351300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>330500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>619300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2108800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>221600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>192800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1259200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>142100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3740900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3569400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3449400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4056000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3832800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3685000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3595200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3951400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4065700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3878800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3700600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4216300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4385400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4128700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4101700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4330500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4371700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4196100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4735300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5929400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5181400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4977600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5065300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5017200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4938500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3455,162 +3560,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3630500</v>
+      </c>
+      <c r="E48" s="3">
         <v>3708500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3802700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3930400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3998900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4088200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4144600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3938100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4001400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4074700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4119100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4189300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4215100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4269900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1308500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1335700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1350700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1401900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1431200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1479200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2188200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2218300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1526500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2291500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2281400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>895000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1162100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1170300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1415500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1424000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1434000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1448700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1399100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1413900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1424300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1467600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1482800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1489500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1508200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1556800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1570500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1588700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1990000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2011600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2301100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2462800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2503400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2398300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2600700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2636800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3686,8 +3800,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3763,85 +3880,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E52" s="3">
         <v>109700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>106600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>97200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>107900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>144300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>147000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>140700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>139300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>143000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>165000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>540400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>583200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>622800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>624300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>846200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>854600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>741300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>811200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1630800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1666000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1760800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3486000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1749600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1754200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3917,85 +4040,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8367100</v>
+      </c>
+      <c r="E54" s="3">
         <v>8549800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8529000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9499100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9363600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9351400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9335400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9429400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9620200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9520900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9452400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10428800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10673200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10529700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7591400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8083000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8165700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8329500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8989300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11340600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11498300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11460100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11593800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11658900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>11611000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4023,8 +4152,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4052,470 +4182,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1511700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1461200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1571300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1547800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1523600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1537500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1437400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1482500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1448700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1460300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1484100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1534300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1570200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1556400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1618600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1707200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1734000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1767800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1651400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1789500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1687900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1646500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1613900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1792600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1695800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
         <v>5000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11800</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>16100</v>
       </c>
       <c r="R58" s="3">
         <v>16100</v>
       </c>
       <c r="S58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="T58" s="3">
         <v>18700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>19000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>20800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>20400</v>
-      </c>
-      <c r="W58" s="3">
-        <v>22500</v>
       </c>
       <c r="X58" s="3">
         <v>22500</v>
       </c>
       <c r="Y58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="Z58" s="3">
         <v>17700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>22700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1301500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1362000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1356300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1395500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1260800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1194800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1159100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1166400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1125500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1169500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1273500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1342900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1278900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1277000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>808400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>997000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>938900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1030300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1791900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5096100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1270800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1339800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1373600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1256300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1331700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2818800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2828200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2933100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2949400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2791100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2739500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2602900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2656100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2581000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2637900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2766500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2886600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2859700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2845100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2443100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2720300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2691600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2817100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3464100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6905900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2981200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3008700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3005200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3071500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3051900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3236700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3040800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2747800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3182300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3130100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3030700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3079800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3217700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3524600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3340600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3096600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3586900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3857100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3604700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3478600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3420700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3508300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3163600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3370900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3017400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7120400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7217800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3273100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7252200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7220300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2648100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2689100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2749100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2895400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2937100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2977300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3037500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2945100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2911500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2928600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2914800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2939400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2995700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3044600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>482900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>488600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>509800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>536500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>553400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>592200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>663000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>673000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>8758700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>689000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>722100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4591,8 +4740,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4668,8 +4820,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4745,85 +4900,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8703500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8558100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8430000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9027100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8858300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8747500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8720300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8818900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9017200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8907100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8777800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9412900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9712600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9494500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6404700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6629500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6709700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6517100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7388300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10515500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10764700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10899500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10979700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11012800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10994300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4851,8 +5012,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4928,8 +5090,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5005,8 +5170,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5082,8 +5250,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5159,85 +5330,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6293100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5961800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5851600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5462500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5426500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5326200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5313100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5294600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5298900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5285700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5222200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4897500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4949000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4869700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4713200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4440300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4435700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4076600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4282500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5048200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5129200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5299900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-5237200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-5216000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-5231000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5313,8 +5490,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5390,8 +5570,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5467,85 +5650,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-336400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>99000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>472000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>505300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>604000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>615200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>610500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>603000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>613800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>674500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1015900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>960600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1035200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1186700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1453400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1456000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1812300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1601000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>825100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>733600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>560600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>614100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>646100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>616700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5621,167 +5810,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44800</v>
+      </c>
+      <c r="E80" s="2">
         <v>44709</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44618</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44527</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44436</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44345</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44254</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44163</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44072</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43981</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43617</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43526</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43435</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43344</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43253</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43162</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43071</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42980</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42889</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42798</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42700</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-331300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-110200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-389100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-36100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-63500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-324700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>51500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-79300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-99700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-273000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-359100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>214400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>767100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>81000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>170700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-75300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-21100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>15000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5809,85 +6007,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E83" s="3">
         <v>70100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>73000</v>
       </c>
       <c r="F83" s="3">
         <v>73000</v>
       </c>
       <c r="G83" s="3">
+        <v>73000</v>
+      </c>
+      <c r="H83" s="3">
         <v>73900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>75900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>77600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>83300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>87100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>79100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>79300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>82000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>83000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>83900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>86900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>86700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>89700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>94500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>93600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>18300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>132000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>142100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>144100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>143200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>280800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5963,8 +6165,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6040,8 +6245,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6117,8 +6325,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6194,8 +6405,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6271,85 +6485,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-199200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-252200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>342700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>359000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>222700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-358300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>418800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-267200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-65100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-231600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>365900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-272500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-90400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-95800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>64300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>205100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>92700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>54200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>152700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6377,85 +6597,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-73200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-49100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-39600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-46200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-59200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-67800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-64300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-45100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-43100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-57600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-46700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-44600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-48000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-45100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-61700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-40800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>135200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-107100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-509200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6531,8 +6755,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6608,85 +6835,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-54600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-20700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-63800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>13300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>57900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>12300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-46800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-46100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-45600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>554300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3262200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>163500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-54300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-58200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-91900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-124600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-247800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6714,8 +6947,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6791,8 +7025,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6868,8 +7105,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6945,8 +7185,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7022,85 +7265,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E100" s="3">
         <v>323200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-435500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>32500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>38200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-185100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-278000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>185100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>212700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-467800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-283800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>265700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>159200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>12000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-91900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>303600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-764200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2888900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-297000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-126300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-65500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>56900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>56000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7176,81 +7425,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E102" s="3">
         <v>16300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-115600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>28100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-42400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>110100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-41900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-195600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>70100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-71300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>147300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-48300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>46100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-265700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>277600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-14600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>277500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-69200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>24500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-31000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>25400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>83900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>RAD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,354 +665,366 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44891</v>
+      </c>
+      <c r="E7" s="2">
         <v>44800</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44709</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44618</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44527</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44436</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44345</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44254</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44163</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44072</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43981</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43617</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43526</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43435</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43344</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43253</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43162</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43071</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42980</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42889</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42798</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42700</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6083300</v>
+      </c>
+      <c r="E8" s="3">
         <v>5901100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6014600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6065400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6228900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6113000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6161000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5916900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6117000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5982000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6027400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5727200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5462300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5366300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5372600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5379600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5450100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5421400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5388500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5394300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5353200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5345000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5436500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5903400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5669100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11355000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4879600</v>
+      </c>
+      <c r="E9" s="3">
         <v>4746600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4817900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4824100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4894500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4867100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4876100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4779100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4913900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4821600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4829100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4460600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4273300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4221800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4245900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4215300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4268000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4260200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4219700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4124500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4166400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4183300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4274600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4554300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4424300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>8884200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1203700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1154500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1196700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1241300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1334400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1245900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1284900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1137800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1203100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1160400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1198300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1266600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1189000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1144500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1126700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1164300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1182100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1161200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1168800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1269800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1186800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1161700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1161900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1349100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1244800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2470800</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1053,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1121,8 +1134,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1201,88 +1217,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E14" s="3">
         <v>269500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>89200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>351500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>62500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>23800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>19600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>29400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>69300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>52600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-30300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>26600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>43800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>55900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>414800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>10400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>309400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-639700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>4000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>25600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>7200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1361,8 +1383,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1388,168 +1413,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6096700</v>
+      </c>
+      <c r="E17" s="3">
         <v>6196900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6102400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6409500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6224200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6149000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6130700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5949800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6077700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5944000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6059800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5655600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5352700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5358800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5409000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5414400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5413200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5829000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5382800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5615900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5336900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5003300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5439600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5833000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5600100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>11252500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-295800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-87800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-344100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-36000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>30300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-32900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-32400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>71600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>109600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-36400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-34800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>36900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-407600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-221600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>16300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>341700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>70400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>69000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1578,408 +1610,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>29000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>29200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>51800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>26900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>15000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>5900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>6200</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>200</v>
       </c>
       <c r="AB20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-198200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-276700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>83500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>25500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>112700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>96400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>138900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>124000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>48900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>141000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>193000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>92100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>50200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>79000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>124000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-312900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>106100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-122700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>111800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>452300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>103900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>340400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>92900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>383600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E22" s="3">
         <v>52500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>48100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>46100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>47800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>48600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>49100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>50000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>53400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>57900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>60100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>58300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>52700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>56000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>56200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>62800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>50600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>50300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>50900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>51000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>53400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>50300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-319300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-106700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-395800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-37200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-97000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-31100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-80700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>53200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-51100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-92000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-60600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-18700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-458900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-51200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-267000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-34200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>305800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-48200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>23200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>18900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>12000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-12600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-8000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>351700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>27600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>195000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-106600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-9500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-108000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-16100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>117500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-12100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>48300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2058,168 +2106,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-331300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-110200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-389100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-36100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-72700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-343500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>52300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-78700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-99300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-255600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-17300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-352300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-41700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-158900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-18200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>188400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-36000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-25100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>23600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-331300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-110200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-389100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-36100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-72700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-343500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>52300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-78700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-99300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-255600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-17300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-352300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-41700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-158900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-18200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>188400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-36000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-25100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>23600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2298,8 +2355,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2309,8 +2369,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2331,55 +2391,58 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>9200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>18700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-17400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>12700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-6800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>256100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>926000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>99200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-17600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-39300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>3900</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-8600</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2458,8 +2521,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2538,168 +2604,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-29000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-29200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-51800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-26900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-6200</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>-200</v>
       </c>
       <c r="AB32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-331300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-110200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-389100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-36100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-63500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-324700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>51500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-79300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-99700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-273000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-359100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>214400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>767100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>81000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>170700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-75300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-21100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>15000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2778,173 +2853,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-331300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-110200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-389100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-36100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-63500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-324700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>51500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-79300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-99700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-273000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-359100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>214400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>767100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>81000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>170700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-75300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-21100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>15000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44891</v>
+      </c>
+      <c r="E38" s="2">
         <v>44800</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44709</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44618</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44527</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44436</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44345</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44254</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44163</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44072</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43981</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43617</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43526</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43435</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43344</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43253</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43162</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43071</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42980</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42889</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42798</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42700</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2973,8 +3057,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3003,88 +3088,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>103100</v>
+      </c>
+      <c r="E41" s="3">
         <v>46800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>56100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>155300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>146600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>118500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>160900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>92700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>288300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>218200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>289500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>142200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>190500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>144400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>410000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>132500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>147100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>447300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>169800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>239000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>214400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>245400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>220000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3163,328 +3252,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1474000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1564400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1449700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1343500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1844200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1662400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1612600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1462400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1770700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1920900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1592800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1286800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1689800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1945600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1803800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1788700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1717800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2039600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1909000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1869100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1796900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1843300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1781200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1771100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1707600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1828600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1981300</v>
+      </c>
+      <c r="E44" s="3">
         <v>2026200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1974800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1959400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1949800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1892000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1857000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1864900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1971300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1938000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1890000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1921600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1957000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1968900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1875900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1871900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1894300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1848300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1809600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1799500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1853900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2877400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2789200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1789500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2947400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2827000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E45" s="3">
         <v>103500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>88900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>106700</v>
       </c>
       <c r="G45" s="3">
         <v>106700</v>
       </c>
       <c r="H45" s="3">
+        <v>106700</v>
+      </c>
+      <c r="I45" s="3">
         <v>131800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>96900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>106900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>158700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>114100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>107700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>274100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>279900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>328600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>258600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>296700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>308300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>351300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>330500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>619300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2108800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>221600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>192800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1259200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>142100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3678200</v>
+      </c>
+      <c r="E46" s="3">
         <v>3740900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3569400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3449400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4056000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3832800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3685000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3595200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3951400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4065700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3878800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3700600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4216300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4385400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4128700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4101700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4330500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4371700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4196100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4735300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5929400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5181400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4977600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5065300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5017200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4938500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3563,168 +3667,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3562600</v>
+      </c>
+      <c r="E48" s="3">
         <v>3630500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3708500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3802700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3930400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3998900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4088200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4144600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3938100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4001400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4074700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4119100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4189300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4215100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4269900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1308500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1335700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1350700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1401900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1431200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1479200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2188200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2218300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1526500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2291500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2281400</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>886900</v>
+      </c>
+      <c r="E49" s="3">
         <v>895000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1162100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1170300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1415500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1424000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1434000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1448700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1399100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1413900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1424300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1467600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1482800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1489500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1508200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1556800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1570500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1588700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1990000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2011600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2301100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2462800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2503400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2398300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2600700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2636800</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3803,8 +3916,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3883,88 +3999,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E52" s="3">
         <v>100800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>109700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>106600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>97200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>107900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>144300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>147000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>140700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>139300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>143000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>165000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>540400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>583200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>622800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>624300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>846200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>854600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>741300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>811200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1630800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1666000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1760800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3486000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1749600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1754200</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4043,88 +4165,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8209800</v>
+      </c>
+      <c r="E54" s="3">
         <v>8367100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8549800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8529000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9499100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9363600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9351400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9335400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9429400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9620200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9520900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9452400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10428800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10673200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10529700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7591400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8083000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8165700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8329500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8989300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11340600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11498300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11460100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11593800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>11658900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>11611000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4153,8 +4281,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4183,488 +4312,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1455000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1511700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1461200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1571300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1547800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1523600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1537500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1437400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1482500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1448700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1460300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1484100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1534300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1570200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1556400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1618600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1707200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1734000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1767800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1651400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1789500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1687900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1646500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1613900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1792600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1695800</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E58" s="3">
         <v>5600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11800</v>
-      </c>
-      <c r="R58" s="3">
-        <v>16100</v>
       </c>
       <c r="S58" s="3">
         <v>16100</v>
       </c>
       <c r="T58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="U58" s="3">
         <v>18700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>19000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>20800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>20400</v>
-      </c>
-      <c r="X58" s="3">
-        <v>22500</v>
       </c>
       <c r="Y58" s="3">
         <v>22500</v>
       </c>
       <c r="Z58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="AA58" s="3">
         <v>17700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>22700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1363000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1301500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1362000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1356300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1395500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1260800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1194800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1159100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1166400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1125500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1169500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1273500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1342900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1278900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1277000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>808400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>997000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>938900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1030300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1791900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5096100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1270800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1339800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1373600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1256300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1331700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2824100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2818800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2828200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2933100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2949400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2791100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2739500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2602900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2656100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2581000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2637900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2766500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2886600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2859700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2845100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2443100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2720300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2691600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2817100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3464100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6905900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2981200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3008700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3005200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3071500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3051900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3202000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3236700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3040800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2747800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3182300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3130100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3030700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3079800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3217700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3524600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3340600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3096600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3586900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3857100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3604700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3478600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3420700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3508300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3163600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3370900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3017400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7120400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7217800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3273100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7252200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>7220300</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2587400</v>
+      </c>
+      <c r="E62" s="3">
         <v>2648100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2689100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2749100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2895400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2937100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2977300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3037500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2945100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2911500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2928600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2914800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2939400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2995700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3044600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>482900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>488600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>509800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>536500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>553400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>592200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>663000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>673000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>8758700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>689000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>722100</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4743,8 +4891,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4823,8 +4974,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4903,88 +5057,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8613500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8703500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8558100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8430000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9027100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8858300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8747500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8720300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8818900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9017200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8907100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8777800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9412900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9712600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9494500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6404700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6629500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6709700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6517100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7388300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10515500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10764700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10899500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10979700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>11012800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>10994300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5013,8 +5173,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5093,8 +5254,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5173,8 +5337,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5253,8 +5420,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5333,88 +5503,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6360200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6293100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5961800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5851600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5462500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5426500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5326200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5313100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5294600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5298900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5285700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5222200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4897500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4949000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4869700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4713200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4440300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4435700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4076600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4282500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5048200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5129200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-5299900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-5237200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-5216000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-5231000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5493,8 +5669,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5573,8 +5752,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5653,88 +5835,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-403700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-336400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>99000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>472000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>505300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>604000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>615200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>610500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>603000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>613800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>674500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1015900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>960600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1035200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1186700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1453400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1456000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1812300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1601000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>825100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>733600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>560600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>614100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>646100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>616700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5813,173 +6001,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44891</v>
+      </c>
+      <c r="E80" s="2">
         <v>44800</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44709</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44618</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44527</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44436</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44345</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44254</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44163</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44072</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43981</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43617</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43526</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43435</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43344</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43253</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43162</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43071</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42980</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42889</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42798</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42700</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-331300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-110200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-389100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-36100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-63500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-324700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>51500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-79300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-99700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-273000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-359100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>214400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>767100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>81000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>170700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-75300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-21100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>15000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6008,88 +6205,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E83" s="3">
         <v>68600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>70100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>73000</v>
       </c>
       <c r="G83" s="3">
         <v>73000</v>
       </c>
       <c r="H83" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I83" s="3">
         <v>73900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>75900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>77600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>83300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>87100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>79100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>79300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>82000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>83000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>83900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>86900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>86700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>89700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>94500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>93600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>18300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>132000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>142100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>144100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>143200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>280800</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6168,8 +6369,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6248,8 +6452,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6328,8 +6535,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6408,8 +6618,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6488,88 +6701,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>132600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-199200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-252200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>342700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>13900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>359000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>222700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-358300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>418800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-267200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-65100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-231600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>365900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-272500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-90400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-95800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>64300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>205100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>92700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>54200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>152700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6598,88 +6817,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-49100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-73200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-49100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-39600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-46200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-59200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-67800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-64300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-42600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-45100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-43100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-41000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-57600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-46700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-44600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-48000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-45100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-61700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-40800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-38300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>135200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-107100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-509200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6758,8 +6981,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6838,88 +7064,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E94" s="3">
         <v>4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-54600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-35800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-54700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-63800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>13300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>57900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>12300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-46800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-48000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-46100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-45600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>554300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>3262200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>163500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-54300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-58200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-91900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-124600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-247800</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6948,8 +7180,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7028,8 +7261,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7108,8 +7344,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7188,8 +7427,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7268,88 +7510,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="E100" s="3">
         <v>186000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>323200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-435500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>32500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>38200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-185100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-278000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>185100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>212700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-467800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-283800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>265700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>159200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>12000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-91900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>303600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-764200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2888900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-297000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-126300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-65500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>56900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>56000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7428,84 +7676,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-115600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>28100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-42400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>110100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-41900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-195600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>70100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-71300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>147300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-48300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>46100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-265700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>277600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-14600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>277500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-69200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>24500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-31000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>25400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>83900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>RAD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,366 +665,379 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44989</v>
+      </c>
+      <c r="E7" s="2">
         <v>44891</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44800</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44709</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44618</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44527</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44436</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44345</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44254</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44163</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44072</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43981</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43617</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43526</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43435</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43344</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43253</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43162</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43071</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42980</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42889</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42798</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42700</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6092900</v>
+      </c>
+      <c r="E8" s="3">
         <v>6083300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5901100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6014600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6065400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6228900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6113000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6161000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5916900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6117000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5982000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6027400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5727200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5462300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5366300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5372600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5379600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5450100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5421400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5388500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5394300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5353200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5345000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5436500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5903400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5669100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>11355000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4843900</v>
+      </c>
+      <c r="E9" s="3">
         <v>4879600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4746600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4817900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4824100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4894500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4867100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4876100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4779100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4913900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4821600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4829100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4460600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4273300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4221800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4245900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4215300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4268000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4260200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4219700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4124500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4166400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4183300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4274600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4554300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4424300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>8884200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1249000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1203700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1154500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1196700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1241300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1334400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1245900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1284900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1137800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1203100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1160400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1198300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1266600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1189000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1144500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1126700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1164300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1182100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1161200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1168800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1269800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1186800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1161700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1161900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1349100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1244800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2470800</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1067,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1137,8 +1151,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1220,91 +1237,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>203300</v>
+      </c>
+      <c r="E14" s="3">
         <v>49000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>269500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>89200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>351500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>62500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>23800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>19600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>29400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>69300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>52600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-30300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>26600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>43800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>55900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>414800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>10400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>309400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-639700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>4000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>25600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>7200</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1386,8 +1409,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1414,174 +1440,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6296600</v>
+      </c>
+      <c r="E17" s="3">
         <v>6096700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6196900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6102400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6409500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6224200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6149000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6130700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5949800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6077700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5944000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6059800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5655600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5352700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5358800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5409000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5414400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5413200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5829000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5382800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5615900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5336900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5003300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5439600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5833000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5600100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>11252500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-203700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-295800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-87800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-344100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-36000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>30300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-32900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>38000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-32400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>71600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>109600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-36400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-34800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>36900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-407600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-221600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>16300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>341700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>70400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>69000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1611,423 +1644,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E20" s="3">
         <v>3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>29000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>29200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>51800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>26900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>15000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>5900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>6200</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>200</v>
       </c>
       <c r="AC20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="E21" s="3">
         <v>59300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-198200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-276700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>83500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>25500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>112700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>96400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>138900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>124000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>48900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>141000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>193000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>92100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>50200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>79000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>124000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-312900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>106100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-122700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>111800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>452300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>103900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>340400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>92900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>383600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E22" s="3">
         <v>57400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>52500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>48100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>46100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>47800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>48600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>49100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>50500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>53400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>57900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>60100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>58300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>52700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>56000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>56200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>62800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>50600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>50300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>50900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>51000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>53400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>50300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-262700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-67700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-319300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-106700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-395800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-37200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-97000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-80700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>53200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-51100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-92000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-60600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-18700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-458900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-51200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-267000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-34200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>305800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-48200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>23200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>18900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-12600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-8000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>351700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>27600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>195000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-106600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-9500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-108000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-16100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>117500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-12100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>48300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-4700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2109,174 +2158,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-241300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-67100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-331300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-110200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-389100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-36100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-72700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-343500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>52300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-78700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-99300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-255600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-17300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-352300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-41700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-158900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-18200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>188400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-36000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-25100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>23600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-241300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-67100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-331300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-110200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-389100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-36100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-72700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-343500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>52300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-78700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-99300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-255600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-17300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-352300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-41700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-158900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-18200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>188400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-36000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-25100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>23600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2358,13 +2416,16 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -2372,8 +2433,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2394,55 +2455,58 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>9200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>18700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-17400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>12700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-6800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>256100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>926000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>99200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-17600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-39300</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>3900</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-8600</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2524,8 +2588,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2607,174 +2674,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-29000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-29200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-51800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-26900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-6200</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>-200</v>
       </c>
       <c r="AC32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-241300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-67100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-331300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-110200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-389100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-63500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-324700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>51500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-79300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-99700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-273000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-359100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>214400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>767100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>81000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>170700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-75300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-21100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>15000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2856,179 +2932,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-241300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-67100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-331300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-110200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-389100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-63500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-324700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>51500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-79300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-99700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-273000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-359100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>214400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>767100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>81000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>170700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-75300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-21100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>15000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44989</v>
+      </c>
+      <c r="E38" s="2">
         <v>44891</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44800</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44709</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44618</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44527</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44436</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44345</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44254</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44163</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44072</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43981</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43617</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43526</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43435</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43344</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43253</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43162</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43071</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42980</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42889</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42798</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42700</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3058,8 +3143,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3089,91 +3175,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>157200</v>
+      </c>
+      <c r="E41" s="3">
         <v>103100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>46800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>56100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>155300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>146600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>118500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>160900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>50800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>92700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>288300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>218200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>289500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>142200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>190500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>144400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>410000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>132500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>147100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>447300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>169800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>239000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>214400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>245400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>220000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3255,340 +3345,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1150000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1474000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1564400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1449700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1343500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1844200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1662400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1612600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1462400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1770700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1920900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1592800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1286800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1689800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1945600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1803800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1788700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1717800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2039600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1909000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1869100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1796900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1843300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1781200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1771100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1707600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1828600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1900700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1981300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2026200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1974800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1959400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1949800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1892000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1857000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1864900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1971300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1938000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1890000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1921600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1957000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1968900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1875900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1871900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1894300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1848300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1809600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1799500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1853900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2877400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2789200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1789500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2947400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2827000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>93200</v>
+      </c>
+      <c r="E45" s="3">
         <v>119800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>103500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>88900</v>
-      </c>
-      <c r="G45" s="3">
-        <v>106700</v>
       </c>
       <c r="H45" s="3">
         <v>106700</v>
       </c>
       <c r="I45" s="3">
+        <v>106700</v>
+      </c>
+      <c r="J45" s="3">
         <v>131800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>96900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>106900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>158700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>114100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>107700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>274100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>279900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>328600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>258600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>296700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>308300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>351300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>330500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>619300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2108800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>221600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>192800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1259200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>142100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3301000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3678200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3740900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3569400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3449400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4056000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3832800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3685000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3595200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3951400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4065700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3878800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3700600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4216300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4385400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4128700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4101700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4330500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4371700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4196100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4735300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5929400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5181400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4977600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5065300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5017200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4938500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3670,174 +3775,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3405000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3562600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3630500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3708500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3802700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3930400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3998900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4088200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4144600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3938100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4001400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4074700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4119100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4189300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4215100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4269900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1308500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1335700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1350700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1401900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1431200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1479200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2188200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2218300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1526500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2291500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2281400</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>758000</v>
+      </c>
+      <c r="E49" s="3">
         <v>886900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>895000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1162100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1170300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1415500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1424000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1434000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1448700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1399100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1413900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1424300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1467600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1482800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1489500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1508200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1556800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1570500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1588700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1990000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2011600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2301100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2462800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2503400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2398300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2600700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2636800</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3919,8 +4033,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4002,91 +4119,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E52" s="3">
         <v>82000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>100800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>109700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>106600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>97200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>107900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>144300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>147000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>140700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>139300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>143000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>165000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>540400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>583200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>622800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>624300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>846200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>854600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>741300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>811200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1630800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1666000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1760800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3486000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1749600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1754200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4168,91 +4291,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7527400</v>
+      </c>
+      <c r="E54" s="3">
         <v>8209800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8367100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8549800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8529000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9499100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9363600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9351400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9335400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9429400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9620200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9520900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9452400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10428800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10673200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10529700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7591400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8083000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8165700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8329500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8989300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11340600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11498300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11460100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>11593800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>11658900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>11611000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4282,8 +4411,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4313,506 +4443,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1494600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1455000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1511700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1461200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1571300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1547800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1523600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1537500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1437400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1482500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1448700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1460300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1484100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1534300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1570200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1556400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1618600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1707200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1734000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1767800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1651400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1789500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1687900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1646500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1613900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1792600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1695800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E58" s="3">
         <v>6100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11800</v>
-      </c>
-      <c r="S58" s="3">
-        <v>16100</v>
       </c>
       <c r="T58" s="3">
         <v>16100</v>
       </c>
       <c r="U58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="V58" s="3">
         <v>18700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>19000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>20800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>20400</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>22500</v>
       </c>
       <c r="Z58" s="3">
         <v>22500</v>
       </c>
       <c r="AA58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="AB58" s="3">
         <v>17700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>22700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1226900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1363000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1301500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1362000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1356300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1395500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1260800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1194800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1159100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1166400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1125500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1169500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1273500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1342900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1278900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1277000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>808400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>997000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>938900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1030300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1791900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5096100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1270800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1339800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1373600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1256300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1331700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2727900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2824100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2818800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2828200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2933100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2949400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2791100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2739500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2602900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2656100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2581000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2637900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2766500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2886600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2859700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2845100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2443100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2720300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2691600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2817100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3464100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6905900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2981200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3008700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3005200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3071500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3051900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2937800</v>
+      </c>
+      <c r="E61" s="3">
         <v>3202000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3236700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3040800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2747800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3182300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3130100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3030700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3079800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3217700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3524600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3340600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3096600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3586900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3857100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3604700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3478600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3420700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3508300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3163600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3370900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3017400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7120400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7217800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3273100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>7252200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>7220300</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2503400</v>
+      </c>
+      <c r="E62" s="3">
         <v>2587400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2648100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2689100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2749100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2895400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2937100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2977300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3037500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2945100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2911500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2928600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2914800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2939400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2995700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3044600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>482900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>488600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>509800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>536500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>553400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>592200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>663000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>673000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>8758700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>689000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>722100</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4894,8 +5043,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4977,8 +5129,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5060,91 +5215,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8169100</v>
+      </c>
+      <c r="E66" s="3">
         <v>8613500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8703500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8558100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8430000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9027100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8858300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8747500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8720300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8818900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9017200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8907100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8777800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9412900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9712600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9494500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6404700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6629500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6709700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6517100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7388300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10515500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10764700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10899500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10979700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>11012800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>10994300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5174,8 +5335,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5257,8 +5419,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5340,8 +5505,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5423,8 +5591,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5506,91 +5677,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6601500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6360200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6293100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5961800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5851600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5462500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5426500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5326200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5313100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5294600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5298900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5285700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5222200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4897500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4949000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4869700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4713200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4440300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4435700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4076600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4282500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5048200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-5129200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-5299900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-5237200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-5216000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-5231000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5672,8 +5849,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5755,8 +5935,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5838,91 +6021,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-641800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-403700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-336400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>99000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>472000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>505300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>604000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>615200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>610500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>603000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>613800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>674500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1015900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>960600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1035200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1186700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1453400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1456000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1812300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1601000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>825100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>733600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>560600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>614100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>646100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>616700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6004,179 +6193,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44989</v>
+      </c>
+      <c r="E80" s="2">
         <v>44891</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44800</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44709</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44618</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44527</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44436</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44345</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44254</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44163</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44072</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43981</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43617</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43526</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43435</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43344</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43253</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43162</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43071</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42980</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42889</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42798</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42700</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-241300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-67100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-331300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-110200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-389100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-63500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-324700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>51500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-79300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-99700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-273000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-359100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>214400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>767100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>81000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>170700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-75300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-21100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>15000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6206,91 +6404,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E83" s="3">
         <v>69500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>68600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>70100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>73000</v>
       </c>
       <c r="H83" s="3">
         <v>73000</v>
       </c>
       <c r="I83" s="3">
+        <v>73000</v>
+      </c>
+      <c r="J83" s="3">
         <v>73900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>75900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>77600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>83300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>87100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>79100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>79300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>82000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>83000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>83900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>86900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>86700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>89700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>94500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>93600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>18300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>132000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>142100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>144100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>143200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>280800</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6372,8 +6574,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6455,8 +6660,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6538,8 +6746,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6621,8 +6832,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6704,91 +6918,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>266400</v>
+      </c>
+      <c r="E89" s="3">
         <v>132600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-199200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-252200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>342700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>13900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>359000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>222700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-358300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>418800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-267200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-65100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-231600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>365900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-272500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-90400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-95800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>64300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>205100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>92700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>54200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>152700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6818,91 +7038,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-50300</v>
+        <v>-50200</v>
       </c>
       <c r="E91" s="3">
-        <v>-49100</v>
+        <v>-59900</v>
       </c>
       <c r="F91" s="3">
-        <v>-73200</v>
+        <v>-52200</v>
       </c>
       <c r="G91" s="3">
-        <v>-49100</v>
+        <v>-85400</v>
       </c>
       <c r="H91" s="3">
-        <v>-39600</v>
+        <v>-51400</v>
       </c>
       <c r="I91" s="3">
-        <v>-46200</v>
+        <v>-49500</v>
       </c>
       <c r="J91" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-59200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-67800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-64300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-28500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-42600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-45100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-43100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-41000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-57600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-46700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-44600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-48000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-45100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-61700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-40800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-38300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>135200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-107100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-509200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6984,8 +7208,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7067,91 +7294,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-40000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-54600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-54700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-63800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>13300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>57900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>12300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-46800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-48000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-46100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-45600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>554300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>3262200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>163500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-54300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-58200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-91900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-124600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-247800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7181,8 +7414,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7264,8 +7498,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7347,8 +7584,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7430,8 +7670,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7513,91 +7756,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-198100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-36400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>186000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>323200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-435500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>32500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>38200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-185100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-278000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>185100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>212700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-467800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-283800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>265700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>159200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>12000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-91900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>303600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-764200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2888900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-297000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-126300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-65500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>56900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>56000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7679,87 +7928,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E102" s="3">
         <v>56200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-115600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>28100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-42400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>110100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-41900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-195600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>70100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-71300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>147300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-48300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>46100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-265700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>277600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-14600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-300200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>277500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-69200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>24500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-31000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>25400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>83900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>11600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>RAD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,379 +665,391 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45080</v>
+      </c>
+      <c r="E7" s="2">
         <v>44989</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44891</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44800</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44709</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44618</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44527</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44436</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44345</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44254</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44163</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44072</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43981</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43617</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43526</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43435</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43344</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43253</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43162</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43071</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42980</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42889</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42798</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42700</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5653200</v>
+      </c>
+      <c r="E8" s="3">
         <v>6092900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6083300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5901100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6014600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6065400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6228900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6113000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6161000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5916900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6117000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5982000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6027400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5727200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5462300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5366300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5372600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5379600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5450100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5421400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5388500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5394300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5353200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5345000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5436500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5903400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>5669100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>11355000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4474600</v>
+      </c>
+      <c r="E9" s="3">
         <v>4843900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4879600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4746600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4817900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4824100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4894500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4867100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4876100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4779100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4913900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4821600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4829100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4460600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4273300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4221800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4245900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4215300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4268000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4260200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4219700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4124500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4166400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4183300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4274600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4554300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4424300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>8884200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1178600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1249000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1203700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1154500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1196700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1241300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1334400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1245900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1284900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1137800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1203100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1160400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1198300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1266600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1189000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1144500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1126700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1164300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1182100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1161200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1168800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1269800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1186800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1161700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1161900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1349100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1244800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2470800</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1068,8 +1080,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1154,8 +1167,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1240,94 +1256,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>249600</v>
+      </c>
+      <c r="E14" s="3">
         <v>203300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>49000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>269500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>89200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>351500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>62500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>23800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>19600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>29400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>69300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>52600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-30300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>26600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>43800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>55900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>414800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>10400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>309400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-639700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>4000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>25600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>7200</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1412,8 +1434,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1441,180 +1466,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5901400</v>
+      </c>
+      <c r="E17" s="3">
         <v>6296600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6096700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6196900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6102400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6409500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6224200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6149000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6130700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5949800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6077700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5944000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6059800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5655600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5352700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5358800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5409000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5414400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5413200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5829000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5382800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5615900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5336900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5003300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5439600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5833000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5600100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>11252500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-248200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-203700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-295800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-87800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-344100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-36000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>30300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-32900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>38000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-32400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>71600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>109600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-36400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-34800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>36900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-407600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-221600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>16300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>341700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>70400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>69000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>102500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1645,438 +1677,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E20" s="3">
         <v>7300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>29000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>29200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>51800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>26900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>15000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>5900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>6200</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>200</v>
       </c>
       <c r="AD20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-174100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-128000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>59300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-198200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-276700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>83500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>25500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>112700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>96400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>138900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>124000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>48900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>141000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>193000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>92100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>50200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>79000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>124000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-312900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>106100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-122700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>111800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>452300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>103900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>340400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>92900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>383600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E22" s="3">
         <v>66300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>57400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>52500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>48100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>46100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>47800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>48600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>49100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>50000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>50500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>53400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>57900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>60100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>58300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>52700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>56000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>56200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>62800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>50600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>50300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>50900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>51000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>53400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>50300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>96400</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-305200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-262700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-67700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-319300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-106700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-395800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-37200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-97000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-80700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>53200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-51100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-92000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-60600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-18700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-458900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-51200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-267000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-34200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>305800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-48200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>23200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>18900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-21400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-6700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-12600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-8000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>351700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>195000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-106600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-9500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-108000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-16100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>117500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-12100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>48300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-4700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2161,180 +2209,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-306700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-241300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-67100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-331300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-110200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-389100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-36100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-72700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-343500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>52300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-78700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-99300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-255600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-17300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-352300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-41700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-158900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-18200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>188400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-36000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-25100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>23600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-306700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-241300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-67100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-331300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-110200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-389100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-36100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-72700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-343500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>52300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-78700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-99300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-255600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-17300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-352300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-41700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-158900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-18200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>188400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-36000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-25100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>23600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2419,16 +2476,19 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -2436,8 +2496,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2458,55 +2518,58 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>9200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>18700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-17400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>12700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-6800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>256100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>926000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>99200</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-17600</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-39300</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>3900</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-8600</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2591,8 +2654,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2677,180 +2743,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-29000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-29200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-51800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-26900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-15000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-6200</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>-200</v>
       </c>
       <c r="AD32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-306700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-241300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-67100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-331300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-110200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-389100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-36100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-63500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-324700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>51500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-79300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-99700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-273000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-359100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>214400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>767100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>81000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>170700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-75300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-21100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>15000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2935,185 +3010,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-306700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-241300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-67100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-331300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-110200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-389100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-36100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-63500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-324700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>51500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-79300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-99700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-273000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-359100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>214400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>767100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>81000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>170700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-75300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-21100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>15000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45080</v>
+      </c>
+      <c r="E38" s="2">
         <v>44989</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44891</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44800</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44709</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44618</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44527</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44436</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44345</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44254</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44163</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44072</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43981</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43617</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43526</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43435</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43344</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43253</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43162</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43071</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42980</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42889</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42798</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42700</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3144,8 +3228,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3176,94 +3261,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>135500</v>
+      </c>
+      <c r="E41" s="3">
         <v>157200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>103100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>46800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>39700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>155300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>146600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>118500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>160900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>50800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>92700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>288300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>218200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>289500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>142200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>190500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>144400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>410000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>132500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>147100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>447300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>169800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>239000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>214400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>245400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>220000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>136100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3348,352 +3437,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1392300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1150000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1474000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1564400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1449700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1343500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1844200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1662400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1612600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1462400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1770700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1920900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1592800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1286800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1689800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1945600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1803800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1788700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1717800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2039600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1909000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1869100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1796900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1843300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1781200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1771100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1707600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1828600</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1950400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1900700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1981300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2026200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1974800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1959400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1949800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1892000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1857000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1864900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1971300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1938000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1890000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1921600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1957000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1968900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1875900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1871900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1894300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1848300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1809600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1799500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1853900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2877400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2789200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1789500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2947400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2827000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>171200</v>
+      </c>
+      <c r="E45" s="3">
         <v>93200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>119800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>103500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>88900</v>
-      </c>
-      <c r="H45" s="3">
-        <v>106700</v>
       </c>
       <c r="I45" s="3">
         <v>106700</v>
       </c>
       <c r="J45" s="3">
+        <v>106700</v>
+      </c>
+      <c r="K45" s="3">
         <v>131800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>96900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>106900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>158700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>114100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>107700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>274100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>279900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>328600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>258600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>296700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>308300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>351300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>330500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>619300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2108800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>221600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>192800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1259200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>142100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3649500</v>
+      </c>
+      <c r="E46" s="3">
         <v>3301000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3678200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3740900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3569400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3449400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4056000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3832800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3685000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3595200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3951400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4065700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3878800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3700600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4216300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4385400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4128700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4101700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4330500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4371700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4196100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4735300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5929400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5181400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4977600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5065300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>5017200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>4938500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3778,180 +3882,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3349700</v>
+      </c>
+      <c r="E48" s="3">
         <v>3405000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3562600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3630500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3708500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3802700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3930400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3998900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4088200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4144600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3938100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4001400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4074700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4119100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4189300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4215100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4269900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1308500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1335700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1350700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1401900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1431200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1479200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2188200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2218300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1526500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2291500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2281400</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>601300</v>
+      </c>
+      <c r="E49" s="3">
         <v>758000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>886900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>895000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1162100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1170300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1415500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1424000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1434000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1448700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1399100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1413900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1424300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1467600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1482800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1489500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1508200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1556800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1570500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1588700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1990000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2011600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2301100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2462800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2503400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2398300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2600700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2636800</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4036,8 +4149,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4122,94 +4238,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E52" s="3">
         <v>63300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>82000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>109700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>106600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>97200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>107900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>144300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>147000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>140700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>139300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>143000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>165000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>540400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>583200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>622800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>624300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>846200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>854600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>741300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>811200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1630800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1666000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1760800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3486000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1749600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1754200</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4294,94 +4416,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7650400</v>
+      </c>
+      <c r="E54" s="3">
         <v>7527400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8209800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8367100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8549800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8529000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9499100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9363600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9351400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9335400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9429400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9620200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9520900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9452400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10428800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10673200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10529700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7591400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8083000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8165700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8329500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8989300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11340600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11498300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>11460100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>11593800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>11658900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>11611000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4412,8 +4540,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4444,524 +4573,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1505700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1494600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1455000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1511700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1461200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1571300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1547800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1523600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1537500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1437400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1482500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1448700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1460300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1484100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1534300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1570200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1556400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1618600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1707200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1734000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1767800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1651400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1789500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1687900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1646500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1613900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1792600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1695800</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E58" s="3">
         <v>6300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>11800</v>
-      </c>
-      <c r="T58" s="3">
-        <v>16100</v>
       </c>
       <c r="U58" s="3">
         <v>16100</v>
       </c>
       <c r="V58" s="3">
+        <v>16100</v>
+      </c>
+      <c r="W58" s="3">
         <v>18700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>19000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>20800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>20400</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>22500</v>
       </c>
       <c r="AA58" s="3">
         <v>22500</v>
       </c>
       <c r="AB58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="AC58" s="3">
         <v>17700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>22700</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1260800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1226900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1363000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1301500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1362000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1356300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1395500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1260800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1194800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1159100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1166400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1125500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1169500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1273500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1342900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1278900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1277000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>808400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>997000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>938900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1030300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1791900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5096100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1270800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1339800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1373600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1256300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1331700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2772600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2727900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2824100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2818800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2828200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2933100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2949400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2791100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2739500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2602900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2656100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2581000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2637900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2766500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2886600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2859700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2845100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2443100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2720300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2691600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2817100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3464100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6905900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2981200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3008700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3005200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3071500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>3051900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3340100</v>
+      </c>
+      <c r="E61" s="3">
         <v>2937800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3202000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3236700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3040800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2747800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3182300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3130100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3030700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3079800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3217700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3524600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3340600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3096600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3586900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3857100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3604700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3478600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3420700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3508300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3163600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3370900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3017400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7120400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7217800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3273100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>7252200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>7220300</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2485200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2503400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2587400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2648100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2689100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2749100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2895400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2937100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2977300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3037500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2945100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2911500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2928600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2914800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2939400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2995700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3044600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>482900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>488600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>509800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>536500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>553400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>592200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>663000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>673000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>8758700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>689000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>722100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5046,8 +5194,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5132,8 +5283,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5218,94 +5372,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8597900</v>
+      </c>
+      <c r="E66" s="3">
         <v>8169100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8613500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8703500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8558100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8430000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9027100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8858300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8747500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8720300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8818900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9017200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8907100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8777800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9412900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9712600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9494500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6404700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6629500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6709700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6517100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7388300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10515500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>10764700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>10899500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>10979700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>11012800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>10994300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5336,8 +5496,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5422,8 +5583,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5508,8 +5672,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5594,8 +5761,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5680,94 +5850,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6908200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6601500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6360200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6293100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5961800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5851600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5462500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5426500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5326200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5313100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5294600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5298900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5285700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5222200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4897500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4949000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4869700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4713200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4440300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4435700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4076600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4282500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-5048200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-5129200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-5299900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-5237200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-5216000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-5231000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5852,8 +6028,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5938,8 +6117,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6024,94 +6206,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-947400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-641800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-403700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-336400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>99000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>472000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>505300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>604000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>615200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>610500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>603000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>613800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>674500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1015900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>960600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1035200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1186700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1453400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1456000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1812300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1601000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>825100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>733600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>560600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>614100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>646100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>616700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6196,185 +6384,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45080</v>
+      </c>
+      <c r="E80" s="2">
         <v>44989</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44891</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44800</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44709</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44618</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44527</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44436</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44345</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44254</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44163</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44072</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43981</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43617</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43526</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43435</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43344</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43253</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43162</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43071</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42980</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42889</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42798</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42700</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42609</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-306700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-241300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-67100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-331300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-110200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-389100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-36100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-63500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-324700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>51500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-79300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-99700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-273000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-359100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>214400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>767100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>81000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>170700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-75300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-21100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>15000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6405,94 +6602,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E83" s="3">
         <v>68500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>69500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>68600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>70100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>73000</v>
       </c>
       <c r="I83" s="3">
         <v>73000</v>
       </c>
       <c r="J83" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K83" s="3">
         <v>73900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>75900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>77600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>83300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>87100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>79100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>79300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>82000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>83000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>83900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>86900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>86700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>89700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>94500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>93600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>18300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>132000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>142100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>144100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>143200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>280800</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6577,8 +6778,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6663,8 +6867,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6749,8 +6956,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6835,8 +7045,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6921,94 +7134,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-372500</v>
+      </c>
+      <c r="E89" s="3">
         <v>266400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>132600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-199200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-252200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>342700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>359000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>222700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-358300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>418800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-267200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-65100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-231600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>365900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-272500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-90400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-95800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>64300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>205100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>92700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>54200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>152700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7039,94 +7258,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-50200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-59900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-52200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-85400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-51400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-49500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-55200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-59200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-67800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-64300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-28500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-45100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-43100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-41000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-57600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-46700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-44600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-48000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-45100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-61700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-40800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-38300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>135200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-107100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-509200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7211,8 +7434,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7297,94 +7523,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-40000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-20700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-63800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>13300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>57900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>12300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-46800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-48000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-46100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-45600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>554300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>3262200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>163500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-54300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-58200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-91900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-124600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-247800</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7415,8 +7647,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7501,8 +7734,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7587,8 +7823,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7673,8 +7912,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7759,94 +8001,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>390300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-198100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-36400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>186000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>323200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-435500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>32500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>38200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-185100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-278000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>185100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>212700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-467800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-283800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>265700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>159200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>12000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-91900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>303600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-764200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2888900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-297000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-126300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-65500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>56900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>56000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>246500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7931,90 +8179,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E102" s="3">
         <v>54100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>56200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-115600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>28100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-42400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>110100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-41900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-195600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>70100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-71300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>147300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-48300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>46100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-265700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>277600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-14600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>277500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-69200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>24500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-31000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>25400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>83900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>11600</v>
       </c>
     </row>
